--- a/exercisesLifeContingencies/survivalModels/someMortalityLaws/makeham_comm_126.xlsx
+++ b/exercisesLifeContingencies/survivalModels/someMortalityLaws/makeham_comm_126.xlsx
@@ -506,34 +506,34 @@
         <v>100000</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8207598445442166</v>
+        <v>41.02974113839863</v>
       </c>
       <c r="D2" t="n">
-        <v>8.207598445442166e-06</v>
+        <v>0.0004102974113839863</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9999917924015546</v>
+        <v>0.999589702588616</v>
       </c>
       <c r="F2" t="n">
-        <v>120.3810580002341</v>
+        <v>71.66319036293268</v>
       </c>
       <c r="G2" t="n">
         <v>100000</v>
       </c>
       <c r="H2" t="n">
-        <v>2869524.686701542</v>
+        <v>2617532.782486292</v>
       </c>
       <c r="I2" t="n">
-        <v>78274827.57755826</v>
+        <v>59290262.20817924</v>
       </c>
       <c r="J2" t="n">
-        <v>0.7926523907675975</v>
+        <v>39.6246510134613</v>
       </c>
       <c r="K2" t="n">
-        <v>1731.263988529792</v>
+        <v>10360.89036084043</v>
       </c>
       <c r="L2" t="n">
-        <v>188952.394290224</v>
+        <v>587099.2573843648</v>
       </c>
     </row>
     <row r="3">
@@ -541,37 +541,37 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>99999.17924015546</v>
+        <v>99958.97025886161</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8642058102384429</v>
+        <v>43.18377188662431</v>
       </c>
       <c r="D3" t="n">
-        <v>8.642129033509249e-06</v>
+        <v>0.0004320149734915457</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9999913578709665</v>
+        <v>0.9995679850265085</v>
       </c>
       <c r="F3" t="n">
-        <v>119.3820419438952</v>
+        <v>70.69240042053542</v>
       </c>
       <c r="G3" t="n">
-        <v>96574.64241994423</v>
+        <v>96535.81042132154</v>
       </c>
       <c r="H3" t="n">
-        <v>2769524.686701542</v>
+        <v>2517532.782486292</v>
       </c>
       <c r="I3" t="n">
-        <v>75405302.89085671</v>
+        <v>56672729.42569293</v>
       </c>
       <c r="J3" t="n">
-        <v>0.806028741967989</v>
+        <v>40.27670366808192</v>
       </c>
       <c r="K3" t="n">
-        <v>1730.471336139025</v>
+        <v>10321.26570982696</v>
       </c>
       <c r="L3" t="n">
-        <v>187221.1303016942</v>
+        <v>576738.3670235244</v>
       </c>
     </row>
     <row r="4">
@@ -579,37 +579,37 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>99998.31503434521</v>
+        <v>99915.78648697498</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9106923102437393</v>
+        <v>45.48688584943878</v>
       </c>
       <c r="D4" t="n">
-        <v>9.107076553549476e-06</v>
+        <v>0.0004552522424008387</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9999908929234465</v>
+        <v>0.9995447477575992</v>
       </c>
       <c r="F4" t="n">
-        <v>118.3830693467204</v>
+        <v>69.72273769469911</v>
       </c>
       <c r="G4" t="n">
-        <v>93266.57505787096</v>
+        <v>93189.60221132768</v>
       </c>
       <c r="H4" t="n">
-        <v>2672950.044281598</v>
+        <v>2420996.97206497</v>
       </c>
       <c r="I4" t="n">
-        <v>72635778.20415516</v>
+        <v>54155196.64320663</v>
       </c>
       <c r="J4" t="n">
-        <v>0.820298069398527</v>
+        <v>40.97191139701108</v>
       </c>
       <c r="K4" t="n">
-        <v>1729.665307397057</v>
+        <v>10280.98900615888</v>
       </c>
       <c r="L4" t="n">
-        <v>185490.6589655551</v>
+        <v>566417.1013136974</v>
       </c>
     </row>
     <row r="5">
@@ -617,37 +617,37 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>99997.40434203498</v>
+        <v>99870.29960112553</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9604320858957954</v>
+        <v>47.94928101381507</v>
       </c>
       <c r="D5" t="n">
-        <v>9.604570160748338e-06</v>
+        <v>0.0004801155218850939</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999903954298393</v>
+        <v>0.9995198844781149</v>
       </c>
       <c r="F5" t="n">
-        <v>117.3841429266344</v>
+        <v>68.75426585452522</v>
       </c>
       <c r="G5" t="n">
-        <v>90071.78034113535</v>
+        <v>89957.29186637102</v>
       </c>
       <c r="H5" t="n">
-        <v>2579683.469223727</v>
+        <v>2327807.369853643</v>
       </c>
       <c r="I5" t="n">
-        <v>69962828.15987356</v>
+        <v>51734199.67114167</v>
       </c>
       <c r="J5" t="n">
-        <v>0.8354747974716041</v>
+        <v>41.71082623355072</v>
       </c>
       <c r="K5" t="n">
-        <v>1728.845009327658</v>
+        <v>10240.01709476187</v>
       </c>
       <c r="L5" t="n">
-        <v>183760.9936581581</v>
+        <v>556136.1123075385</v>
       </c>
     </row>
     <row r="6">
@@ -655,37 +655,37 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>99996.44390994908</v>
+        <v>99822.35032011171</v>
       </c>
       <c r="C6" t="n">
-        <v>1.01365275694298</v>
+        <v>50.58183621406519</v>
       </c>
       <c r="D6" t="n">
-        <v>1.013688804629709e-05</v>
+        <v>0.0005067185460155832</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9999898631119537</v>
+        <v>0.9994932814539844</v>
       </c>
       <c r="F6" t="n">
-        <v>116.3852655593683</v>
+        <v>67.78705152790754</v>
       </c>
       <c r="G6" t="n">
-        <v>86986.3782670519</v>
+        <v>86834.93517300447</v>
       </c>
       <c r="H6" t="n">
-        <v>2489611.688882592</v>
+        <v>2237850.077987272</v>
       </c>
       <c r="I6" t="n">
-        <v>67383144.69064984</v>
+        <v>49406392.30128803</v>
       </c>
       <c r="J6" t="n">
-        <v>0.8515743515403348</v>
+        <v>42.49403366061677</v>
       </c>
       <c r="K6" t="n">
-        <v>1728.009534530187</v>
+        <v>10198.30626852832</v>
       </c>
       <c r="L6" t="n">
-        <v>182032.1486488305</v>
+        <v>545896.0952127766</v>
       </c>
     </row>
     <row r="7">
@@ -693,37 +693,37 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>99995.43025719214</v>
+        <v>99771.76848389764</v>
       </c>
       <c r="C7" t="n">
-        <v>1.070597861189099</v>
+        <v>53.39615414241699</v>
       </c>
       <c r="D7" t="n">
-        <v>1.070646786993645e-05</v>
+        <v>0.0005351829976937283</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9999892935321301</v>
+        <v>0.9994648170023063</v>
       </c>
       <c r="F7" t="n">
-        <v>115.3864402872395</v>
+        <v>66.82116441045368</v>
       </c>
       <c r="G7" t="n">
-        <v>84006.62169072087</v>
+        <v>83818.72240444849</v>
       </c>
       <c r="H7" t="n">
-        <v>2402625.31061554</v>
+        <v>2151015.142814267</v>
       </c>
       <c r="I7" t="n">
-        <v>64893533.00176724</v>
+        <v>47168542.22330076</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8686131728831724</v>
+        <v>43.32215162272923</v>
       </c>
       <c r="K7" t="n">
-        <v>1727.157960178646</v>
+        <v>10155.8122348677</v>
       </c>
       <c r="L7" t="n">
-        <v>180304.1391143002</v>
+        <v>535697.7889442482</v>
       </c>
     </row>
     <row r="8">
@@ -731,37 +731,37 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>99994.35965933095</v>
+        <v>99718.37232975522</v>
       </c>
       <c r="C8" t="n">
-        <v>1.131527966570727</v>
+        <v>56.40460671354154</v>
       </c>
       <c r="D8" t="n">
-        <v>1.131591792202791e-05</v>
+        <v>0.0005656390632512442</v>
       </c>
       <c r="E8" t="n">
-        <v>0.999988684082078</v>
+        <v>0.9994343609367488</v>
       </c>
       <c r="F8" t="n">
-        <v>114.3876703283906</v>
+        <v>65.85667737596873</v>
       </c>
       <c r="G8" t="n">
-        <v>81128.89177421134</v>
+        <v>80904.97368254612</v>
       </c>
       <c r="H8" t="n">
-        <v>2318618.688924819</v>
+        <v>2067196.420409818</v>
       </c>
       <c r="I8" t="n">
-        <v>62490907.6911517</v>
+        <v>45017527.08048649</v>
       </c>
       <c r="J8" t="n">
-        <v>0.8866087346899546</v>
+        <v>44.19582941510242</v>
       </c>
       <c r="K8" t="n">
-        <v>1726.289347005763</v>
+        <v>10112.49008324497</v>
       </c>
       <c r="L8" t="n">
-        <v>178576.9811541216</v>
+        <v>525541.9767093805</v>
       </c>
     </row>
     <row r="9">
@@ -769,37 +769,37 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>99993.22813136438</v>
+        <v>99661.96772304169</v>
       </c>
       <c r="C9" t="n">
-        <v>1.196721860723813</v>
+        <v>59.62038285531604</v>
       </c>
       <c r="D9" t="n">
-        <v>1.196802906644479e-05</v>
+        <v>0.0005982260256088834</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9999880319709336</v>
+        <v>0.9994017739743911</v>
       </c>
       <c r="F9" t="n">
-        <v>113.3889590865038</v>
+        <v>64.89366658828028</v>
       </c>
       <c r="G9" t="n">
-        <v>78349.69359157371</v>
+        <v>78090.13449966194</v>
       </c>
       <c r="H9" t="n">
-        <v>2237489.797150607</v>
+        <v>1986291.446727273</v>
       </c>
       <c r="I9" t="n">
-        <v>60172289.00222689</v>
+        <v>42950330.66007667</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9055795590858138</v>
+        <v>45.11574643249948</v>
       </c>
       <c r="K9" t="n">
-        <v>1725.402738271073</v>
+        <v>10068.29425382987</v>
       </c>
       <c r="L9" t="n">
-        <v>176850.6918071158</v>
+        <v>515429.4866261355</v>
       </c>
     </row>
     <row r="10">
@@ -807,37 +807,37 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>99992.03140950366</v>
+        <v>99602.34734018637</v>
       </c>
       <c r="C10" t="n">
-        <v>1.266477823516484</v>
+        <v>63.05753879039505</v>
       </c>
       <c r="D10" t="n">
-        <v>1.266578751990544e-05</v>
+        <v>0.0006330928986545414</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9999873342124801</v>
+        <v>0.9993669071013455</v>
       </c>
       <c r="F10" t="n">
-        <v>112.3903101610171</v>
+        <v>63.93221161415543</v>
       </c>
       <c r="G10" t="n">
-        <v>75665.65188434458</v>
+        <v>75370.77139518759</v>
       </c>
       <c r="H10" t="n">
-        <v>2159140.103559033</v>
+        <v>1908201.31222761</v>
       </c>
       <c r="I10" t="n">
-        <v>57934799.20507628</v>
+        <v>40964039.2133494</v>
       </c>
       <c r="J10" t="n">
-        <v>0.925545235279239</v>
+        <v>46.0826107588976</v>
       </c>
       <c r="K10" t="n">
-        <v>1724.497158711988</v>
+        <v>10023.17850739737</v>
       </c>
       <c r="L10" t="n">
-        <v>175125.2890688448</v>
+        <v>505361.1923723058</v>
       </c>
     </row>
     <row r="11">
@@ -845,37 +845,37 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>99990.76493168014</v>
+        <v>99539.28980139598</v>
       </c>
       <c r="C11" t="n">
-        <v>1.34111498827914</v>
+        <v>66.73105086317743</v>
       </c>
       <c r="D11" t="n">
-        <v>1.34123885260351e-05</v>
+        <v>0.0006703991056830061</v>
       </c>
       <c r="E11" t="n">
-        <v>0.999986587611474</v>
+        <v>0.999329600894317</v>
       </c>
       <c r="F11" t="n">
-        <v>111.3917273578611</v>
+        <v>62.97239553703051</v>
       </c>
       <c r="G11" t="n">
-        <v>73073.50696238896</v>
+        <v>72743.56778151853</v>
       </c>
       <c r="H11" t="n">
-        <v>2083474.451674689</v>
+        <v>1832830.540832422</v>
       </c>
       <c r="I11" t="n">
-        <v>55775659.10151725</v>
+        <v>39055837.90112179</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9465264388189709</v>
+        <v>47.09715757723249</v>
       </c>
       <c r="K11" t="n">
-        <v>1723.571613476708</v>
+        <v>9977.095896638475</v>
       </c>
       <c r="L11" t="n">
-        <v>173400.7919101328</v>
+        <v>495338.0138649084</v>
       </c>
     </row>
     <row r="12">
@@ -883,37 +883,37 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>99989.42381669187</v>
+        <v>99472.5587505328</v>
       </c>
       <c r="C12" t="n">
-        <v>1.420974797726423</v>
+        <v>70.65687095394316</v>
       </c>
       <c r="D12" t="n">
-        <v>1.42112509852188e-05</v>
+        <v>0.0007103152049314776</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9999857887490148</v>
+        <v>0.9992896847950685</v>
       </c>
       <c r="F12" t="n">
-        <v>110.3932147007415</v>
+        <v>62.01430507124267</v>
       </c>
       <c r="G12" t="n">
-        <v>70570.11074510131</v>
+        <v>70205.3199145632</v>
       </c>
       <c r="H12" t="n">
-        <v>2010400.9447123</v>
+        <v>1760086.973050904</v>
       </c>
       <c r="I12" t="n">
-        <v>53692184.64984256</v>
+        <v>37223007.36028937</v>
       </c>
       <c r="J12" t="n">
-        <v>0.9685449518603529</v>
+        <v>48.16014737642487</v>
       </c>
       <c r="K12" t="n">
-        <v>1722.625087037889</v>
+        <v>9929.998739061244</v>
       </c>
       <c r="L12" t="n">
-        <v>171677.220296656</v>
+        <v>485360.9179682699</v>
       </c>
     </row>
     <row r="13">
@@ -921,37 +921,37 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>99988.00284189414</v>
+        <v>99401.90187957886</v>
       </c>
       <c r="C13" t="n">
-        <v>1.506422561404374</v>
+        <v>74.85198450612164</v>
       </c>
       <c r="D13" t="n">
-        <v>1.506603310985621e-05</v>
+        <v>0.0007530236654506028</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9999849339668901</v>
+        <v>0.9992469763345494</v>
       </c>
       <c r="F13" t="n">
-        <v>109.3947764429915</v>
+        <v>61.05803067641776</v>
       </c>
       <c r="G13" t="n">
-        <v>68152.42293815836</v>
+        <v>67752.93300403761</v>
       </c>
       <c r="H13" t="n">
-        <v>1939830.833967198</v>
+        <v>1689881.653136341</v>
       </c>
       <c r="I13" t="n">
-        <v>51681783.70513026</v>
+        <v>35462920.38723846</v>
       </c>
       <c r="J13" t="n">
-        <v>0.991623684645682</v>
+        <v>49.2723639307453</v>
       </c>
       <c r="K13" t="n">
-        <v>1721.656542086029</v>
+        <v>9881.838591684816</v>
       </c>
       <c r="L13" t="n">
-        <v>169954.5952096182</v>
+        <v>475430.9192292086</v>
       </c>
     </row>
     <row r="14">
@@ -959,37 +959,37 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>99986.49641933273</v>
+        <v>99327.04989507273</v>
       </c>
       <c r="C14" t="n">
-        <v>1.597849121422201</v>
+        <v>79.33447117322143</v>
       </c>
       <c r="D14" t="n">
-        <v>1.598064917407438e-05</v>
+        <v>0.0007987196967697008</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9999840193508259</v>
+        <v>0.9992012803032303</v>
       </c>
       <c r="F14" t="n">
-        <v>108.3964170800168</v>
+        <v>60.10366667163459</v>
       </c>
       <c r="G14" t="n">
-        <v>65817.50734117962</v>
+        <v>65383.41745898623</v>
       </c>
       <c r="H14" t="n">
-        <v>1871678.41102904</v>
+        <v>1622128.720132303</v>
       </c>
       <c r="I14" t="n">
-        <v>49741952.87116306</v>
+        <v>33773038.73410212</v>
       </c>
       <c r="J14" t="n">
-        <v>1.015786698019679</v>
+        <v>50.43461202422908</v>
       </c>
       <c r="K14" t="n">
-        <v>1720.664918401383</v>
+        <v>9832.56622775407</v>
       </c>
       <c r="L14" t="n">
-        <v>168232.9386675321</v>
+        <v>465549.0806375238</v>
       </c>
     </row>
     <row r="15">
@@ -997,37 +997,37 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>99984.89857021131</v>
+        <v>99247.71542389951</v>
       </c>
       <c r="C15" t="n">
-        <v>1.69567263412842</v>
+        <v>84.12356806795022</v>
       </c>
       <c r="D15" t="n">
-        <v>1.695928743616903e-05</v>
+        <v>0.000847612136044118</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9999830407125638</v>
+        <v>0.9991523878639559</v>
       </c>
       <c r="F15" t="n">
-        <v>107.3981413623604</v>
+        <v>59.15131134894713</v>
       </c>
       <c r="G15" t="n">
-        <v>63562.52828181222</v>
+        <v>63093.88526415276</v>
       </c>
       <c r="H15" t="n">
-        <v>1805860.903687861</v>
+        <v>1556745.302673317</v>
       </c>
       <c r="I15" t="n">
-        <v>47870274.46013402</v>
+        <v>32150910.01396982</v>
       </c>
       <c r="J15" t="n">
-        <v>1.04105922710764</v>
+        <v>51.64771489006915</v>
       </c>
       <c r="K15" t="n">
-        <v>1719.649131703364</v>
+        <v>9782.131615729841</v>
       </c>
       <c r="L15" t="n">
-        <v>166512.2737491308</v>
+        <v>455716.5144097697</v>
       </c>
     </row>
     <row r="16">
@@ -1035,37 +1035,37 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>99983.20289757718</v>
+        <v>99163.59185583156</v>
       </c>
       <c r="C16" t="n">
-        <v>1.800340475766711</v>
+        <v>89.23973556833595</v>
       </c>
       <c r="D16" t="n">
-        <v>1.800642931604202e-05</v>
+        <v>0.0008999243966281156</v>
       </c>
       <c r="E16" t="n">
-        <v>0.999981993570684</v>
+        <v>0.9991000756033719</v>
       </c>
       <c r="F16" t="n">
-        <v>106.3999543094125</v>
+        <v>58.20106708580779</v>
       </c>
       <c r="G16" t="n">
-        <v>61384.74717190902</v>
+        <v>60881.54648300531</v>
       </c>
       <c r="H16" t="n">
-        <v>1742298.375406048</v>
+        <v>1493651.417409164</v>
       </c>
       <c r="I16" t="n">
-        <v>46064413.55644616</v>
+        <v>30594164.7112965</v>
       </c>
       <c r="J16" t="n">
-        <v>1.067467706173189</v>
+        <v>52.91251133264938</v>
       </c>
       <c r="K16" t="n">
-        <v>1718.608072476256</v>
+        <v>9730.483900839774</v>
       </c>
       <c r="L16" t="n">
-        <v>164792.6246174274</v>
+        <v>445934.3827940399</v>
       </c>
     </row>
     <row r="17">
@@ -1073,37 +1073,37 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>99981.40255710142</v>
+        <v>99074.35212026323</v>
       </c>
       <c r="C17" t="n">
-        <v>1.912331280452258</v>
+        <v>94.70472560042595</v>
       </c>
       <c r="D17" t="n">
-        <v>1.912686991323298e-05</v>
+        <v>0.0009558954822683763</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9999808731300868</v>
+        <v>0.9990441045177316</v>
       </c>
       <c r="F17" t="n">
-        <v>105.4018612237911</v>
+        <v>57.2530404558935</v>
       </c>
       <c r="G17" t="n">
-        <v>59281.51918161781</v>
+        <v>58743.70588339559</v>
       </c>
       <c r="H17" t="n">
-        <v>1680913.628234139</v>
+        <v>1432769.870926159</v>
       </c>
       <c r="I17" t="n">
-        <v>44322115.18104012</v>
+        <v>29100513.29388734</v>
       </c>
       <c r="J17" t="n">
-        <v>1.095039794531541</v>
+        <v>54.22985249612741</v>
       </c>
       <c r="K17" t="n">
-        <v>1717.540604770083</v>
+        <v>9677.571389507124</v>
       </c>
       <c r="L17" t="n">
-        <v>163074.0165449512</v>
+        <v>436203.8988932001</v>
       </c>
     </row>
     <row r="18">
@@ -1111,37 +1111,37 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>99979.49022582096</v>
+        <v>98979.6473946628</v>
       </c>
       <c r="C18" t="n">
-        <v>2.032157119854638</v>
+        <v>100.5416522778493</v>
       </c>
       <c r="D18" t="n">
-        <v>2.032573996191278e-05</v>
+        <v>0.001015781071405097</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9999796742600381</v>
+        <v>0.9989842189285949</v>
       </c>
       <c r="F18" t="n">
-        <v>104.4038677064221</v>
+        <v>56.30734233779386</v>
       </c>
       <c r="G18" t="n">
-        <v>57250.29002734259</v>
+        <v>56677.75968200601</v>
       </c>
       <c r="H18" t="n">
-        <v>1621632.109052521</v>
+        <v>1374026.165042763</v>
       </c>
       <c r="I18" t="n">
-        <v>42641201.55280597</v>
+        <v>27667743.42296118</v>
       </c>
       <c r="J18" t="n">
-        <v>1.123804403685178</v>
+        <v>55.60059824100274</v>
       </c>
       <c r="K18" t="n">
-        <v>1716.445564975551</v>
+        <v>9623.341537011</v>
       </c>
       <c r="L18" t="n">
-        <v>161356.4759401811</v>
+        <v>426526.3275036931</v>
       </c>
     </row>
     <row r="19">
@@ -1149,37 +1149,37 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>99977.4580687011</v>
+        <v>98879.10574238494</v>
       </c>
       <c r="C19" t="n">
-        <v>2.160365834236896</v>
+        <v>106.7750647299199</v>
       </c>
       <c r="D19" t="n">
-        <v>2.160852932220347e-05</v>
+        <v>0.001079854676357073</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9999783914706778</v>
+        <v>0.9989201453236429</v>
       </c>
       <c r="F19" t="n">
-        <v>103.4059796723454</v>
+        <v>55.36408802097688</v>
       </c>
       <c r="G19" t="n">
-        <v>55288.59286967604</v>
+        <v>54681.19240390878</v>
       </c>
       <c r="H19" t="n">
-        <v>1564381.819025179</v>
+        <v>1317348.405360757</v>
       </c>
       <c r="I19" t="n">
-        <v>41019569.44375345</v>
+        <v>26293717.25791842</v>
       </c>
       <c r="J19" t="n">
-        <v>1.153791725617372</v>
+        <v>57.02561308610832</v>
       </c>
       <c r="K19" t="n">
-        <v>1715.321760571866</v>
+        <v>9567.740938769994</v>
       </c>
       <c r="L19" t="n">
-        <v>159640.0303752055</v>
+        <v>416902.985966682</v>
       </c>
     </row>
     <row r="20">
@@ -1187,37 +1187,37 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>99975.29770286687</v>
+        <v>98772.33067765502</v>
       </c>
       <c r="C20" t="n">
-        <v>2.29754352526953</v>
+        <v>113.4310218939008</v>
       </c>
       <c r="D20" t="n">
-        <v>2.298111211529452e-05</v>
+        <v>0.001148408882484353</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9999770188878847</v>
+        <v>0.9988515911175156</v>
       </c>
       <c r="F20" t="n">
-        <v>102.4082033672754</v>
+        <v>54.42339730840178</v>
       </c>
       <c r="G20" t="n">
-        <v>53394.04531753599</v>
+        <v>52751.57385372937</v>
       </c>
       <c r="H20" t="n">
-        <v>1509093.226155503</v>
+        <v>1262667.212956848</v>
       </c>
       <c r="I20" t="n">
-        <v>39455187.62472827</v>
+        <v>24976368.85255766</v>
       </c>
       <c r="J20" t="n">
-        <v>1.185033262251957</v>
+        <v>58.50576166983965</v>
       </c>
       <c r="K20" t="n">
-        <v>1714.167968846249</v>
+        <v>9510.715325683888</v>
       </c>
       <c r="L20" t="n">
-        <v>157924.7086146336</v>
+        <v>407335.245027912</v>
       </c>
     </row>
     <row r="21">
@@ -1225,37 +1225,37 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>99973.00015934159</v>
+        <v>98658.89965576111</v>
       </c>
       <c r="C21" t="n">
-        <v>2.444317221756729</v>
+        <v>120.5371689818844</v>
       </c>
       <c r="D21" t="n">
-        <v>2.444977361748535e-05</v>
+        <v>0.00122175667276303</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9999755502263825</v>
+        <v>0.998778243327237</v>
       </c>
       <c r="F21" t="n">
-        <v>101.4105453849446</v>
+        <v>53.48539461510219</v>
       </c>
       <c r="G21" t="n">
-        <v>51564.34653486784</v>
+        <v>50886.55619507341</v>
       </c>
       <c r="H21" t="n">
-        <v>1455699.180837967</v>
+        <v>1209915.639103119</v>
       </c>
       <c r="I21" t="n">
-        <v>37946094.39857277</v>
+        <v>23713701.63960081</v>
       </c>
       <c r="J21" t="n">
-        <v>1.217561856093991</v>
+        <v>60.04190368074271</v>
       </c>
       <c r="K21" t="n">
-        <v>1712.982935583997</v>
+        <v>9452.209564014045</v>
       </c>
       <c r="L21" t="n">
-        <v>156210.5406457874</v>
+        <v>397824.5297022281</v>
       </c>
     </row>
     <row r="22">
@@ -1263,37 +1263,37 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>99970.55584211984</v>
+        <v>98538.36248677922</v>
       </c>
       <c r="C22" t="n">
-        <v>2.601357730135176</v>
+        <v>128.1228152552156</v>
       </c>
       <c r="D22" t="n">
-        <v>2.602123903605591e-05</v>
+        <v>0.00130023284355274</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9999739787609639</v>
+        <v>0.9986997671564473</v>
       </c>
       <c r="F22" t="n">
-        <v>100.4130126852598</v>
+        <v>52.55020906201518</v>
       </c>
       <c r="G22" t="n">
-        <v>49797.27444639902</v>
+        <v>49083.87113503964</v>
       </c>
       <c r="H22" t="n">
-        <v>1404134.834303099</v>
+        <v>1159029.082908046</v>
       </c>
       <c r="I22" t="n">
-        <v>36490395.21773481</v>
+        <v>22503786.00049769</v>
       </c>
       <c r="J22" t="n">
-        <v>1.251411722049937</v>
+        <v>61.63488820281695</v>
       </c>
       <c r="K22" t="n">
-        <v>1711.765373727902</v>
+        <v>9392.167660333304</v>
       </c>
       <c r="L22" t="n">
-        <v>154497.5577102034</v>
+        <v>388372.320138214</v>
       </c>
     </row>
     <row r="23">
@@ -1301,37 +1301,37 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>99967.9544843897</v>
+        <v>98410.239671524</v>
       </c>
       <c r="C23" t="n">
-        <v>2.769382682454022</v>
+        <v>136.2190126516928</v>
       </c>
       <c r="D23" t="n">
-        <v>2.770270429897081e-05</v>
+        <v>0.001384195517726283</v>
       </c>
       <c r="E23" t="n">
-        <v>0.999972297295701</v>
+        <v>0.9986158044822737</v>
       </c>
       <c r="F23" t="n">
-        <v>99.41561261329907</v>
+        <v>51.61797456428311</v>
       </c>
       <c r="G23" t="n">
-        <v>48090.6830390525</v>
+        <v>47341.32721080597</v>
       </c>
       <c r="H23" t="n">
-        <v>1354337.5598567</v>
+        <v>1109945.211773006</v>
       </c>
       <c r="I23" t="n">
-        <v>35086260.3834317</v>
+        <v>21344756.91758964</v>
       </c>
       <c r="J23" t="n">
-        <v>1.286618480449658</v>
+        <v>63.28554741700398</v>
       </c>
       <c r="K23" t="n">
-        <v>1710.513962005853</v>
+        <v>9330.532772130486</v>
       </c>
       <c r="L23" t="n">
-        <v>152785.7923364755</v>
+        <v>378980.1524778808</v>
       </c>
     </row>
     <row r="24">
@@ -1339,37 +1339,37 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>99965.18510170725</v>
+        <v>98274.02065887231</v>
       </c>
       <c r="C24" t="n">
-        <v>2.949159795339576</v>
+        <v>144.8586347068926</v>
       </c>
       <c r="D24" t="n">
-        <v>2.950186899908225e-05</v>
+        <v>0.001474027761718677</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9999704981310009</v>
+        <v>0.9985259722382813</v>
       </c>
       <c r="F24" t="n">
-        <v>98.41835291917972</v>
+        <v>50.68882991320663</v>
       </c>
       <c r="G24" t="n">
-        <v>46442.49975574211</v>
+        <v>45656.80717543657</v>
       </c>
       <c r="H24" t="n">
-        <v>1306246.876817648</v>
+        <v>1062603.8845622</v>
       </c>
       <c r="I24" t="n">
-        <v>33731922.823575</v>
+        <v>20234811.70581664</v>
       </c>
       <c r="J24" t="n">
-        <v>1.323219191261674</v>
+        <v>64.99468959499158</v>
       </c>
       <c r="K24" t="n">
-        <v>1709.227343525403</v>
+        <v>9267.247224713483</v>
       </c>
       <c r="L24" t="n">
-        <v>151075.2783744696</v>
+        <v>369649.6197057502</v>
       </c>
     </row>
     <row r="25">
@@ -1377,37 +1377,37 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>99962.2359419119</v>
+        <v>98129.16202416542</v>
       </c>
       <c r="C25" t="n">
-        <v>3.141510354344021</v>
+        <v>154.0764550935945</v>
       </c>
       <c r="D25" t="n">
-        <v>3.142697164326691e-05</v>
+        <v>0.001570139313486152</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9999685730283567</v>
+        <v>0.9984298606865138</v>
       </c>
       <c r="F25" t="n">
-        <v>97.42124177882692</v>
+        <v>49.76291885097798</v>
       </c>
       <c r="G25" t="n">
-        <v>44850.72297838479</v>
+        <v>44028.26548021993</v>
       </c>
       <c r="H25" t="n">
-        <v>1259804.377061906</v>
+        <v>1016947.077386764</v>
       </c>
       <c r="I25" t="n">
-        <v>32425675.94675736</v>
+        <v>19172207.82125444</v>
       </c>
       <c r="J25" t="n">
-        <v>1.361252389490389</v>
+        <v>66.76309131699782</v>
       </c>
       <c r="K25" t="n">
-        <v>1707.904124334141</v>
+        <v>9202.252535118492</v>
       </c>
       <c r="L25" t="n">
-        <v>149366.0510309442</v>
+        <v>360382.3724810368</v>
       </c>
     </row>
     <row r="26">
@@ -1415,37 +1415,37 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>99959.09443155756</v>
+        <v>97975.08556907182</v>
       </c>
       <c r="C26" t="n">
-        <v>3.347312939116815</v>
+        <v>163.9092249666821</v>
       </c>
       <c r="D26" t="n">
-        <v>3.348682736825648e-05</v>
+        <v>0.001672968428806598</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9999665131726317</v>
+        <v>0.9983270315711934</v>
       </c>
       <c r="F26" t="n">
-        <v>96.42428781567166</v>
+        <v>48.84039013727526</v>
       </c>
       <c r="G26" t="n">
-        <v>43313.41959707335</v>
+        <v>42453.72585100808</v>
       </c>
       <c r="H26" t="n">
-        <v>1214953.654083521</v>
+        <v>972918.8119065439</v>
       </c>
       <c r="I26" t="n">
-        <v>31165871.56969545</v>
+        <v>18155260.74386767</v>
       </c>
       <c r="J26" t="n">
-        <v>1.400758121777811</v>
+        <v>68.59148883969159</v>
       </c>
       <c r="K26" t="n">
-        <v>1706.542871944651</v>
+        <v>9135.489443801494</v>
       </c>
       <c r="L26" t="n">
-        <v>147658.1469066101</v>
+        <v>351180.1199459183</v>
       </c>
     </row>
     <row r="27">
@@ -1453,37 +1453,37 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>99955.74711861844</v>
+        <v>97811.17634410513</v>
       </c>
       <c r="C27" t="n">
-        <v>3.567507405741346</v>
+        <v>174.3957481454433</v>
       </c>
       <c r="D27" t="n">
-        <v>3.56908682950241e-05</v>
+        <v>0.001782983853827802</v>
       </c>
       <c r="E27" t="n">
-        <v>0.999964309131705</v>
+        <v>0.9982170161461722</v>
       </c>
       <c r="F27" t="n">
-        <v>95.42750012330816</v>
+        <v>47.92139760675004</v>
       </c>
       <c r="G27" t="n">
-        <v>41828.72266245781</v>
+        <v>40931.27895618771</v>
       </c>
       <c r="H27" t="n">
-        <v>1171640.234486447</v>
+        <v>930465.0860555359</v>
       </c>
       <c r="I27" t="n">
-        <v>29950917.91561193</v>
+        <v>17182341.93196113</v>
       </c>
       <c r="J27" t="n">
-        <v>1.441777984175991</v>
+        <v>70.48056853514802</v>
       </c>
       <c r="K27" t="n">
-        <v>1705.142113822873</v>
+        <v>9066.897954961803</v>
       </c>
       <c r="L27" t="n">
-        <v>145951.6040346654</v>
+        <v>342044.6305021168</v>
       </c>
     </row>
     <row r="28">
@@ -1491,37 +1491,37 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>99952.1796112127</v>
+        <v>97636.78059595969</v>
       </c>
       <c r="C28" t="n">
-        <v>3.803099143745463</v>
+        <v>185.5769529876072</v>
       </c>
       <c r="D28" t="n">
-        <v>3.804918670646806e-05</v>
+        <v>0.001900686932269524</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9999619508132935</v>
+        <v>0.9980993130677305</v>
       </c>
       <c r="F28" t="n">
-        <v>94.4308882891392</v>
+        <v>47.0061002163942</v>
       </c>
       <c r="G28" t="n">
-        <v>40394.82911848484</v>
+        <v>39459.08016407423</v>
       </c>
       <c r="H28" t="n">
-        <v>1129811.51182399</v>
+        <v>889533.8070993483</v>
       </c>
       <c r="I28" t="n">
-        <v>28779277.68112548</v>
+        <v>16251876.8459056</v>
       </c>
       <c r="J28" t="n">
-        <v>1.484355161092753</v>
+        <v>72.43095631625701</v>
       </c>
       <c r="K28" t="n">
-        <v>1703.700335838697</v>
+        <v>8996.417386426654</v>
       </c>
       <c r="L28" t="n">
-        <v>144246.4619208426</v>
+        <v>332977.7325471551</v>
       </c>
     </row>
     <row r="29">
@@ -1529,37 +1529,37 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>99948.37651206896</v>
+        <v>97451.20364297208</v>
       </c>
       <c r="C29" t="n">
-        <v>4.0551636265761</v>
+        <v>197.4959596073467</v>
       </c>
       <c r="D29" t="n">
-        <v>4.057258124734453e-05</v>
+        <v>0.002026613856211612</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9999594274187527</v>
+        <v>0.9979733861437884</v>
       </c>
       <c r="F29" t="n">
-        <v>93.43446241903797</v>
+        <v>46.09466208172646</v>
       </c>
       <c r="G29" t="n">
-        <v>39009.99761274191</v>
+        <v>38035.34738767987</v>
       </c>
       <c r="H29" t="n">
-        <v>1089416.682705505</v>
+        <v>850074.726935274</v>
       </c>
       <c r="I29" t="n">
-        <v>27649466.16930149</v>
+        <v>15362343.03880625</v>
       </c>
       <c r="J29" t="n">
-        <v>1.528534465456596</v>
+        <v>74.44320595840898</v>
       </c>
       <c r="K29" t="n">
-        <v>1702.215980677604</v>
+        <v>8923.986430110397</v>
       </c>
       <c r="L29" t="n">
-        <v>142542.7615850039</v>
+        <v>323981.3151607284</v>
       </c>
     </row>
     <row r="30">
@@ -1567,37 +1567,37 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>99944.32134844239</v>
+        <v>97253.70768336473</v>
       </c>
       <c r="C30" t="n">
-        <v>4.324851275046035</v>
+        <v>210.1981408599101</v>
       </c>
       <c r="D30" t="n">
-        <v>4.327260635417218e-05</v>
+        <v>0.002161338069950669</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9999567273936458</v>
+        <v>0.9978386619300493</v>
       </c>
       <c r="F30" t="n">
-        <v>92.43823316305397</v>
+        <v>45.18725250069661</v>
       </c>
       <c r="G30" t="n">
-        <v>37672.54638174754</v>
+        <v>36658.35901496743</v>
       </c>
       <c r="H30" t="n">
-        <v>1050406.685092763</v>
+        <v>812039.379547594</v>
       </c>
       <c r="I30" t="n">
-        <v>26560049.48659599</v>
+        <v>14512268.31187097</v>
       </c>
       <c r="J30" t="n">
-        <v>1.574362379943846</v>
+        <v>76.51778622155216</v>
       </c>
       <c r="K30" t="n">
-        <v>1700.687446212148</v>
+        <v>8849.543224151987</v>
       </c>
       <c r="L30" t="n">
-        <v>140840.5456043263</v>
+        <v>315057.328730618</v>
       </c>
     </row>
     <row r="31">
@@ -1605,37 +1605,37 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>99939.99649716735</v>
+        <v>97043.50954250482</v>
       </c>
       <c r="C31" t="n">
-        <v>4.613392655254053</v>
+        <v>223.7311752572228</v>
       </c>
       <c r="D31" t="n">
-        <v>4.616162514459177e-05</v>
+        <v>0.002305472836998224</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9999538383748554</v>
+        <v>0.9976945271630018</v>
       </c>
       <c r="F31" t="n">
-        <v>91.44221174219</v>
+        <v>44.28404596416539</v>
       </c>
       <c r="G31" t="n">
-        <v>36380.85120861993</v>
+        <v>35326.45192286178</v>
       </c>
       <c r="H31" t="n">
-        <v>1012734.138711015</v>
+        <v>775381.0205326265</v>
       </c>
       <c r="I31" t="n">
-        <v>25509642.80150323</v>
+        <v>13700228.93232338</v>
       </c>
       <c r="J31" t="n">
-        <v>1.621887099389143</v>
+        <v>78.65506667150974</v>
       </c>
       <c r="K31" t="n">
-        <v>1699.113083832204</v>
+        <v>8773.025437930437</v>
       </c>
       <c r="L31" t="n">
-        <v>139139.8581581141</v>
+        <v>306207.785506466</v>
       </c>
     </row>
     <row r="32">
@@ -1643,37 +1643,37 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>99935.38310451209</v>
+        <v>96819.77836724759</v>
       </c>
       <c r="C32" t="n">
-        <v>4.922104033381354</v>
+        <v>238.1450896860658</v>
       </c>
       <c r="D32" t="n">
-        <v>4.925286600676593e-05</v>
+        <v>0.002459673980896304</v>
       </c>
       <c r="E32" t="n">
-        <v>0.9999507471339932</v>
+        <v>0.9975403260191037</v>
       </c>
       <c r="F32" t="n">
-        <v>90.44640997627556</v>
+        <v>43.38522215178194</v>
       </c>
       <c r="G32" t="n">
-        <v>35133.34345064416</v>
+        <v>34038.0195734515</v>
       </c>
       <c r="H32" t="n">
-        <v>976353.2875023955</v>
+        <v>740054.5686097648</v>
       </c>
       <c r="I32" t="n">
-        <v>24496908.66279221</v>
+        <v>12924847.91179075</v>
       </c>
       <c r="J32" t="n">
-        <v>1.6711585742996</v>
+        <v>80.85530209381122</v>
       </c>
       <c r="K32" t="n">
-        <v>1697.491196732815</v>
+        <v>8694.370371258925</v>
       </c>
       <c r="L32" t="n">
-        <v>137440.7450742819</v>
+        <v>297434.7600685355</v>
       </c>
     </row>
     <row r="33">
@@ -1681,37 +1681,37 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>99930.46100047871</v>
+        <v>96581.63327756153</v>
       </c>
       <c r="C33" t="n">
-        <v>5.252393311204561</v>
+        <v>253.4922894734195</v>
       </c>
       <c r="D33" t="n">
-        <v>5.256048314616901e-05</v>
+        <v>0.002624642811174249</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9999474395168538</v>
+        <v>0.9973753571888258</v>
       </c>
       <c r="F33" t="n">
-        <v>89.45084031296071</v>
+        <v>42.4909659120494</v>
       </c>
       <c r="G33" t="n">
-        <v>33928.508134343</v>
+        <v>32791.51019097352</v>
       </c>
       <c r="H33" t="n">
-        <v>941219.9440517512</v>
+        <v>706016.5490363132</v>
       </c>
       <c r="I33" t="n">
-        <v>23520555.37528982</v>
+        <v>12184793.34318099</v>
       </c>
       <c r="J33" t="n">
-        <v>1.72222855539547</v>
+        <v>83.1186153886058</v>
       </c>
       <c r="K33" t="n">
-        <v>1695.820038158515</v>
+        <v>8613.515069165114</v>
       </c>
       <c r="L33" t="n">
-        <v>135743.2538775491</v>
+        <v>288740.3896972766</v>
       </c>
     </row>
     <row r="34">
@@ -1719,37 +1719,37 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>99925.2086071675</v>
+        <v>96328.14098808811</v>
       </c>
       <c r="C34" t="n">
-        <v>5.605766368079231</v>
+        <v>269.8275729766773</v>
       </c>
       <c r="D34" t="n">
-        <v>5.609962136898794e-05</v>
+        <v>0.002801129246437384</v>
       </c>
       <c r="E34" t="n">
-        <v>0.999943900378631</v>
+        <v>0.9971988707535626</v>
       </c>
       <c r="F34" t="n">
-        <v>88.45551585785272</v>
+        <v>41.6014672253423</v>
       </c>
       <c r="G34" t="n">
-        <v>32764.88211573893</v>
+        <v>31585.42501833314</v>
       </c>
       <c r="H34" t="n">
-        <v>907291.4359174082</v>
+        <v>673225.0388453398</v>
       </c>
       <c r="I34" t="n">
-        <v>22579335.43123807</v>
+        <v>11478776.79414467</v>
       </c>
       <c r="J34" t="n">
-        <v>1.77515063922554</v>
+        <v>85.44497883067233</v>
       </c>
       <c r="K34" t="n">
-        <v>1694.09780960312</v>
+        <v>8530.39645377651</v>
       </c>
       <c r="L34" t="n">
-        <v>134047.4338393906</v>
+        <v>280126.8746281115</v>
       </c>
     </row>
     <row r="35">
@@ -1757,37 +1757,37 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>99919.60284079942</v>
+        <v>96058.31341511144</v>
       </c>
       <c r="C35" t="n">
-        <v>5.983833836234109</v>
+        <v>287.2081274684362</v>
       </c>
       <c r="D35" t="n">
-        <v>5.988648539534402e-05</v>
+        <v>0.00298993514728163</v>
       </c>
       <c r="E35" t="n">
-        <v>0.9999401135146047</v>
+        <v>0.9970100648527184</v>
       </c>
       <c r="F35" t="n">
-        <v>87.46045040581593</v>
+        <v>40.7169211486198</v>
       </c>
       <c r="G35" t="n">
-        <v>31641.05230357332</v>
+        <v>30418.3166520707</v>
       </c>
       <c r="H35" t="n">
-        <v>874526.5538016692</v>
+        <v>641639.6138270068</v>
       </c>
       <c r="I35" t="n">
-        <v>21672043.99532066</v>
+        <v>10805551.75529933</v>
       </c>
       <c r="J35" t="n">
-        <v>1.829980314711587</v>
+        <v>87.83419357499881</v>
       </c>
       <c r="K35" t="n">
-        <v>1692.322658963894</v>
+        <v>8444.951474945838</v>
       </c>
       <c r="L35" t="n">
-        <v>132353.3360297875</v>
+        <v>271596.478174335</v>
       </c>
     </row>
     <row r="36">
@@ -1795,37 +1795,37 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>99913.61900696318</v>
+        <v>95771.105287643</v>
       </c>
       <c r="C36" t="n">
-        <v>6.388318338433925</v>
+        <v>305.6935026325128</v>
       </c>
       <c r="D36" t="n">
-        <v>6.393841402130285e-05</v>
+        <v>0.003191917872456207</v>
       </c>
       <c r="E36" t="n">
-        <v>0.9999360615859787</v>
+        <v>0.9968080821275438</v>
       </c>
       <c r="F36" t="n">
-        <v>86.465658473452</v>
+        <v>39.83752774056577</v>
       </c>
       <c r="G36" t="n">
-        <v>30555.6539433263</v>
+        <v>29288.7874548428</v>
       </c>
       <c r="H36" t="n">
-        <v>842885.5014980959</v>
+        <v>611221.297174936</v>
       </c>
       <c r="I36" t="n">
-        <v>20797517.44151899</v>
+        <v>10163912.14147233</v>
       </c>
       <c r="J36" t="n">
-        <v>1.886775010642663</v>
+        <v>90.28586728573183</v>
       </c>
       <c r="K36" t="n">
-        <v>1690.492678649182</v>
+        <v>8357.117281370838</v>
       </c>
       <c r="L36" t="n">
-        <v>130661.0133708236</v>
+        <v>263151.5266993892</v>
       </c>
     </row>
     <row r="37">
@@ -1833,37 +1833,37 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>99907.23068862475</v>
+        <v>95465.4117850105</v>
       </c>
       <c r="C37" t="n">
-        <v>6.821062218568824</v>
+        <v>325.3455574876707</v>
       </c>
       <c r="D37" t="n">
-        <v>6.827395946773507e-05</v>
+        <v>0.003407994072453735</v>
       </c>
       <c r="E37" t="n">
-        <v>0.9999317260405323</v>
+        <v>0.9965920059275463</v>
       </c>
       <c r="F37" t="n">
-        <v>85.47115533277555</v>
+        <v>38.96349196588118</v>
       </c>
       <c r="G37" t="n">
-        <v>29507.36895995381</v>
+        <v>28195.48804464018</v>
       </c>
       <c r="H37" t="n">
-        <v>812329.8475547696</v>
+        <v>581932.5097200932</v>
       </c>
       <c r="I37" t="n">
-        <v>19954631.9400209</v>
+        <v>9552690.844297392</v>
       </c>
       <c r="J37" t="n">
-        <v>1.945594144024289</v>
+        <v>92.79938976500674</v>
       </c>
       <c r="K37" t="n">
-        <v>1688.60590363854</v>
+        <v>8266.831414085105</v>
       </c>
       <c r="L37" t="n">
-        <v>128970.5206921744</v>
+        <v>254794.4094180183</v>
       </c>
     </row>
     <row r="38">
@@ -1871,37 +1871,37 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>99900.40962640618</v>
+        <v>95140.06622752282</v>
       </c>
       <c r="C38" t="n">
-        <v>7.284035797591636</v>
+        <v>346.2283760065334</v>
       </c>
       <c r="D38" t="n">
-        <v>7.291297227740579e-05</v>
+        <v>0.003639143735495676</v>
       </c>
       <c r="E38" t="n">
-        <v>0.9999270870277226</v>
+        <v>0.9963608562645043</v>
       </c>
       <c r="F38" t="n">
-        <v>84.47695704609662</v>
+        <v>38.09502357745938</v>
       </c>
       <c r="G38" t="n">
-        <v>28494.9243573305</v>
+        <v>27137.11586011445</v>
       </c>
       <c r="H38" t="n">
-        <v>782822.4785948158</v>
+        <v>553737.0216754529</v>
       </c>
       <c r="I38" t="n">
-        <v>19142302.09246613</v>
+        <v>8970758.334577298</v>
       </c>
       <c r="J38" t="n">
-        <v>2.006499169173907</v>
+        <v>95.37390645872928</v>
       </c>
       <c r="K38" t="n">
-        <v>1686.660309494515</v>
+        <v>8174.032024320099</v>
       </c>
       <c r="L38" t="n">
-        <v>127281.9147885359</v>
+        <v>246527.5780039332</v>
       </c>
     </row>
     <row r="39">
@@ -1909,37 +1909,37 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>99893.12559060859</v>
+        <v>94793.83785151629</v>
       </c>
       <c r="C39" t="n">
-        <v>7.779346189463734</v>
+        <v>368.4081460968807</v>
       </c>
       <c r="D39" t="n">
-        <v>7.787669214942561e-05</v>
+        <v>0.003886414501688917</v>
       </c>
       <c r="E39" t="n">
-        <v>0.9999221233078506</v>
+        <v>0.9961135854983111</v>
       </c>
       <c r="F39" t="n">
-        <v>83.48308050211703</v>
+        <v>37.23233697518825</v>
       </c>
       <c r="G39" t="n">
-        <v>27517.09067245551</v>
+        <v>26112.41380153042</v>
       </c>
       <c r="H39" t="n">
-        <v>754327.5542374854</v>
+        <v>526599.9058153385</v>
       </c>
       <c r="I39" t="n">
-        <v>18359479.61387131</v>
+        <v>8417021.312901845</v>
       </c>
       <c r="J39" t="n">
-        <v>2.069553627514968</v>
+        <v>98.00828971893615</v>
       </c>
       <c r="K39" t="n">
-        <v>1684.653810325342</v>
+        <v>8078.658117861371</v>
       </c>
       <c r="L39" t="n">
-        <v>125595.2544790413</v>
+        <v>238353.5459796131</v>
       </c>
     </row>
     <row r="40">
@@ -1947,37 +1947,37 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>99885.34624441912</v>
+        <v>94425.42970541942</v>
       </c>
       <c r="C40" t="n">
-        <v>8.309246713588845</v>
+        <v>391.952995961472</v>
       </c>
       <c r="D40" t="n">
-        <v>8.31878451245105e-05</v>
+        <v>0.004150926261964116</v>
       </c>
       <c r="E40" t="n">
-        <v>0.9999168121548755</v>
+        <v>0.9958490737380359</v>
       </c>
       <c r="F40" t="n">
-        <v>82.48954345324417</v>
+        <v>36.3756510401499</v>
       </c>
       <c r="G40" t="n">
-        <v>26572.6804825453</v>
+        <v>25120.16894699751</v>
       </c>
       <c r="H40" t="n">
-        <v>726810.4635650299</v>
+        <v>500487.492013808</v>
       </c>
       <c r="I40" t="n">
-        <v>17605152.05963382</v>
+        <v>7890421.407086505</v>
       </c>
       <c r="J40" t="n">
-        <v>2.134823197926604</v>
+        <v>100.7011077077506</v>
       </c>
       <c r="K40" t="n">
-        <v>1682.584256697827</v>
+        <v>7980.649828142435</v>
       </c>
       <c r="L40" t="n">
-        <v>123910.600668716</v>
+        <v>230274.8878617517</v>
       </c>
     </row>
     <row r="41">
@@ -1985,37 +1985,37 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>99877.03699770554</v>
+        <v>94033.47670945794</v>
       </c>
       <c r="C41" t="n">
-        <v>8.876146942676991</v>
+        <v>416.9327811511048</v>
       </c>
       <c r="D41" t="n">
-        <v>8.887074756613877e-05</v>
+        <v>0.0044338760592606</v>
       </c>
       <c r="E41" t="n">
-        <v>0.9999111292524339</v>
+        <v>0.9955661239407394</v>
       </c>
       <c r="F41" t="n">
-        <v>81.49636455411947</v>
+        <v>35.52518894302574</v>
       </c>
       <c r="G41" t="n">
-        <v>25660.54696320165</v>
+        <v>24159.21134376069</v>
       </c>
       <c r="H41" t="n">
-        <v>700237.7830824845</v>
+        <v>475367.3230668106</v>
       </c>
       <c r="I41" t="n">
-        <v>16878341.59606879</v>
+        <v>7389933.915072698</v>
       </c>
       <c r="J41" t="n">
-        <v>2.202375747567016</v>
+        <v>103.45059083665</v>
       </c>
       <c r="K41" t="n">
-        <v>1680.4494334999</v>
+        <v>7879.948720434684</v>
       </c>
       <c r="L41" t="n">
-        <v>122228.0164120182</v>
+        <v>222294.2380336093</v>
       </c>
     </row>
     <row r="42">
@@ -2023,37 +2023,37 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>99868.16085076286</v>
+        <v>93616.54392830684</v>
       </c>
       <c r="C42" t="n">
-        <v>9.482623426921416</v>
+        <v>443.4188148763046</v>
       </c>
       <c r="D42" t="n">
-        <v>9.495141741011626e-05</v>
+        <v>0.004736543310292274</v>
       </c>
       <c r="E42" t="n">
-        <v>0.9999050485825899</v>
+        <v>0.9952634566897077</v>
       </c>
       <c r="F42" t="n">
-        <v>80.50356340135446</v>
+        <v>34.68117792556649</v>
       </c>
       <c r="G42" t="n">
-        <v>24779.58249590527</v>
+        <v>23228.41287444514</v>
       </c>
       <c r="H42" t="n">
-        <v>674577.2361192828</v>
+        <v>451208.1117230499</v>
       </c>
       <c r="I42" t="n">
-        <v>16178103.81298631</v>
+        <v>6914566.592005886</v>
       </c>
       <c r="J42" t="n">
-        <v>2.272281382976756</v>
+        <v>106.2545956474997</v>
       </c>
       <c r="K42" t="n">
-        <v>1678.247057752333</v>
+        <v>7776.498129598032</v>
       </c>
       <c r="L42" t="n">
-        <v>120547.5669785183</v>
+        <v>214414.2893131746</v>
       </c>
     </row>
     <row r="43">
@@ -2061,37 +2061,37 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>99858.67822733593</v>
+        <v>93173.12511343053</v>
       </c>
       <c r="C43" t="n">
-        <v>10.13143113816186</v>
+        <v>471.4835333505548</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0001014576931921418</v>
+        <v>0.005060295367108947</v>
       </c>
       <c r="E43" t="n">
-        <v>0.9998985423068079</v>
+        <v>0.9949397046328911</v>
       </c>
       <c r="F43" t="n">
-        <v>79.51116057445965</v>
+        <v>33.84384905405316</v>
       </c>
       <c r="G43" t="n">
-        <v>23928.7173231457</v>
+        <v>22326.68619824617</v>
       </c>
       <c r="H43" t="n">
-        <v>649797.6536233774</v>
+        <v>427979.6988486047</v>
       </c>
       <c r="I43" t="n">
-        <v>15503526.57686703</v>
+        <v>6463358.480282837</v>
       </c>
       <c r="J43" t="n">
-        <v>2.344612501355152</v>
+        <v>109.1105660594136</v>
       </c>
       <c r="K43" t="n">
-        <v>1675.974776369356</v>
+        <v>7670.243533950533</v>
       </c>
       <c r="L43" t="n">
-        <v>118869.3199207659</v>
+        <v>206637.7911835765</v>
       </c>
     </row>
     <row r="44">
@@ -2099,37 +2099,37 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>99848.54679619777</v>
+        <v>92701.64158007997</v>
       </c>
       <c r="C44" t="n">
-        <v>10.82551567979006</v>
+        <v>501.2000871101878</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0001084193613942741</v>
+        <v>0.00540659343855554</v>
       </c>
       <c r="E44" t="n">
-        <v>0.9998915806386057</v>
+        <v>0.9945934065614445</v>
       </c>
       <c r="F44" t="n">
-        <v>78.5191776779448</v>
+        <v>33.01343694375554</v>
       </c>
       <c r="G44" t="n">
-        <v>23106.91824955579</v>
+        <v>21452.98376713179</v>
       </c>
       <c r="H44" t="n">
-        <v>625868.9363002318</v>
+        <v>405653.0126503585</v>
       </c>
       <c r="I44" t="n">
-        <v>14853728.92324365</v>
+        <v>6035378.781434232</v>
       </c>
       <c r="J44" t="n">
-        <v>2.419443841777121</v>
+        <v>112.0154919290106</v>
       </c>
       <c r="K44" t="n">
-        <v>1673.630163868001</v>
+        <v>7561.13296789112</v>
       </c>
       <c r="L44" t="n">
-        <v>117193.3451443966</v>
+        <v>198967.547649626</v>
       </c>
     </row>
     <row r="45">
@@ -2137,37 +2137,37 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>99837.72128051797</v>
+        <v>92200.44149296978</v>
       </c>
       <c r="C45" t="n">
-        <v>11.56802631110549</v>
+        <v>532.6418484030771</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0001158682926927224</v>
+        <v>0.005776998892610408</v>
       </c>
       <c r="E45" t="n">
-        <v>0.9998841317073073</v>
+        <v>0.9942230011073896</v>
       </c>
       <c r="F45" t="n">
-        <v>77.52763738456113</v>
+        <v>32.19017945349401</v>
       </c>
       <c r="G45" t="n">
-        <v>22313.1873874755</v>
+        <v>20606.29691717592</v>
       </c>
       <c r="H45" t="n">
-        <v>602762.0180506761</v>
+        <v>384200.0288832267</v>
       </c>
       <c r="I45" t="n">
-        <v>14227859.98694341</v>
+        <v>5629725.768783873</v>
       </c>
       <c r="J45" t="n">
-        <v>2.496852536186403</v>
+        <v>114.965864901905</v>
       </c>
       <c r="K45" t="n">
-        <v>1671.210720026224</v>
+        <v>7449.11747596211</v>
       </c>
       <c r="L45" t="n">
-        <v>115519.7149805286</v>
+        <v>191406.4146817349</v>
       </c>
     </row>
     <row r="46">
@@ -2175,37 +2175,37 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>99826.15325420687</v>
+        <v>91667.79964456671</v>
       </c>
       <c r="C46" t="n">
-        <v>12.36232983721105</v>
+        <v>565.8818238768519</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0001238385877269099</v>
+        <v>0.006173179961458719</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9998761614122731</v>
+        <v>0.9938268200385413</v>
       </c>
       <c r="F46" t="n">
-        <v>76.53656347964643</v>
+        <v>31.37431734952493</v>
       </c>
       <c r="G46" t="n">
-        <v>21546.56094542366</v>
+        <v>19785.6550351579</v>
       </c>
       <c r="H46" t="n">
-        <v>580448.8306632005</v>
+        <v>363593.7319660509</v>
       </c>
       <c r="I46" t="n">
-        <v>13625097.96889274</v>
+        <v>5245525.739900647</v>
       </c>
       <c r="J46" t="n">
-        <v>2.576918159902902</v>
+        <v>117.9576315718343</v>
       </c>
       <c r="K46" t="n">
-        <v>1668.713867490038</v>
+        <v>7334.151611060204</v>
       </c>
       <c r="L46" t="n">
-        <v>113848.5042605023</v>
+        <v>183957.2972057728</v>
       </c>
     </row>
     <row r="47">
@@ -2213,37 +2213,37 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>99813.79092436966</v>
+        <v>91101.91782068985</v>
       </c>
       <c r="C47" t="n">
-        <v>13.21202541836623</v>
+        <v>600.9919609467911</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0001323667330537237</v>
+        <v>0.006596918872000979</v>
       </c>
       <c r="E47" t="n">
-        <v>0.9998676332669463</v>
+        <v>0.993403081127999</v>
       </c>
       <c r="F47" t="n">
-        <v>75.54598090652421</v>
+        <v>30.56609393810443</v>
       </c>
       <c r="G47" t="n">
-        <v>20806.10805800881</v>
+        <v>18990.12480054326</v>
       </c>
       <c r="H47" t="n">
-        <v>558902.2697177769</v>
+        <v>343808.0769308929</v>
       </c>
       <c r="I47" t="n">
-        <v>13044649.13822954</v>
+        <v>4881932.007934596</v>
       </c>
       <c r="J47" t="n">
-        <v>2.659722781373865</v>
+        <v>120.9861440117026</v>
       </c>
       <c r="K47" t="n">
-        <v>1666.136949330135</v>
+        <v>7216.19397948837</v>
       </c>
       <c r="L47" t="n">
-        <v>112179.7903930123</v>
+        <v>176623.1455947126</v>
       </c>
     </row>
     <row r="48">
@@ -2251,37 +2251,37 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>99800.57889895129</v>
+        <v>90500.92585974306</v>
       </c>
       <c r="C48" t="n">
-        <v>14.12096035579639</v>
+        <v>638.0423354123928</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0001414917679996019</v>
+        <v>0.007050119425310863</v>
       </c>
       <c r="E48" t="n">
-        <v>0.9998585082320004</v>
+        <v>0.9929498805746891</v>
       </c>
       <c r="F48" t="n">
-        <v>74.55591581289671</v>
+        <v>29.76575466623748</v>
       </c>
       <c r="G48" t="n">
-        <v>20090.92965586079</v>
+        <v>18218.80950289234</v>
       </c>
       <c r="H48" t="n">
-        <v>538096.1616597681</v>
+        <v>324817.9521303497</v>
       </c>
       <c r="I48" t="n">
-        <v>12485746.86851176</v>
+        <v>4538123.931003704</v>
       </c>
       <c r="J48" t="n">
-        <v>2.745351010916286</v>
+        <v>124.0461077997985</v>
       </c>
       <c r="K48" t="n">
-        <v>1663.477226548761</v>
+        <v>7095.207835476668</v>
       </c>
       <c r="L48" t="n">
-        <v>110513.6534436822</v>
+        <v>169406.9516152242</v>
       </c>
     </row>
     <row r="49">
@@ -2289,37 +2289,37 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>99786.4579385955</v>
+        <v>89862.88352433067</v>
       </c>
       <c r="C49" t="n">
-        <v>15.09324691322677</v>
+        <v>677.1002071538452</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0001512554631662999</v>
+        <v>0.007534815049313637</v>
       </c>
       <c r="E49" t="n">
-        <v>0.9998487445368337</v>
+        <v>0.9924651849506864</v>
       </c>
       <c r="F49" t="n">
-        <v>73.56639559815926</v>
+        <v>28.97354669029151</v>
       </c>
       <c r="G49" t="n">
-        <v>19400.15737421341</v>
+        <v>17470.84843461839</v>
       </c>
       <c r="H49" t="n">
-        <v>518005.2320039073</v>
+        <v>306599.1426274573</v>
       </c>
       <c r="I49" t="n">
-        <v>11947650.70685199</v>
+        <v>4213305.978873354</v>
       </c>
       <c r="J49" t="n">
-        <v>2.833890048032525</v>
+        <v>127.1315277359243</v>
       </c>
       <c r="K49" t="n">
-        <v>1660.731875537845</v>
+        <v>6971.161727676869</v>
       </c>
       <c r="L49" t="n">
-        <v>108850.1762171334</v>
+        <v>162311.7437797475</v>
       </c>
     </row>
     <row r="50">
@@ -2327,37 +2327,37 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>99771.36469168228</v>
+        <v>89185.78331717683</v>
       </c>
       <c r="C50" t="n">
-        <v>16.13328023711684</v>
+        <v>718.2289301203692</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0001617025114066806</v>
+        <v>0.008053177349646501</v>
       </c>
       <c r="E50" t="n">
-        <v>0.9998382974885933</v>
+        <v>0.9919468226503535</v>
       </c>
       <c r="F50" t="n">
-        <v>72.57744896154894</v>
+        <v>28.18971841234542</v>
       </c>
       <c r="G50" t="n">
-        <v>18732.95249881625</v>
+        <v>16745.41635882501</v>
       </c>
       <c r="H50" t="n">
-        <v>498605.0746296938</v>
+        <v>289128.2941928389</v>
       </c>
       <c r="I50" t="n">
-        <v>11429645.47484809</v>
+        <v>3906706.836245897</v>
       </c>
       <c r="J50" t="n">
-        <v>2.925429727001178</v>
+        <v>130.235651528103</v>
       </c>
       <c r="K50" t="n">
-        <v>1657.897985489812</v>
+        <v>6844.030199940944</v>
       </c>
       <c r="L50" t="n">
-        <v>107189.4443415956</v>
+        <v>155340.5820520706</v>
       </c>
     </row>
     <row r="51">
@@ -2365,37 +2365,37 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>99755.23141144516</v>
+        <v>88467.55438705646</v>
       </c>
       <c r="C51" t="n">
-        <v>17.24575744097889</v>
+        <v>761.4867023762833</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0001728807321377257</v>
+        <v>0.00860752518425778</v>
       </c>
       <c r="E51" t="n">
-        <v>0.9998271192678623</v>
+        <v>0.9913924748157422</v>
       </c>
       <c r="F51" t="n">
-        <v>71.58910595102628</v>
+        <v>27.41451898435653</v>
       </c>
       <c r="G51" t="n">
-        <v>18088.50494789864</v>
+        <v>16041.72305168111</v>
       </c>
       <c r="H51" t="n">
-        <v>479872.1221308776</v>
+        <v>272382.877834014</v>
       </c>
       <c r="I51" t="n">
-        <v>10931040.40021839</v>
+        <v>3617578.542053058</v>
       </c>
       <c r="J51" t="n">
-        <v>3.020062560281992</v>
+        <v>133.350911832648</v>
       </c>
       <c r="K51" t="n">
-        <v>1654.972555762811</v>
+        <v>6713.79454841284</v>
       </c>
       <c r="L51" t="n">
-        <v>105531.5463561058</v>
+        <v>148496.5518521297</v>
       </c>
     </row>
     <row r="52">
@@ -2403,37 +2403,37 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>99737.98565400418</v>
+        <v>87706.06768468018</v>
       </c>
       <c r="C52" t="n">
-        <v>18.43569792218914</v>
+        <v>806.9251417656774</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0001848412899188023</v>
+        <v>0.009200334287779555</v>
       </c>
       <c r="E52" t="n">
-        <v>0.9998151587100812</v>
+        <v>0.9907996657122204</v>
       </c>
       <c r="F52" t="n">
-        <v>70.60139801277076</v>
+        <v>26.64819778045904</v>
       </c>
       <c r="G52" t="n">
-        <v>17466.03228895368</v>
+        <v>15359.01291842744</v>
       </c>
       <c r="H52" t="n">
-        <v>461783.617182979</v>
+        <v>256341.1547823328</v>
       </c>
       <c r="I52" t="n">
-        <v>10451168.27808752</v>
+        <v>3345195.664219044</v>
       </c>
       <c r="J52" t="n">
-        <v>3.117883779241737</v>
+        <v>136.4688671506935</v>
       </c>
       <c r="K52" t="n">
-        <v>1651.952493202529</v>
+        <v>6580.443636580193</v>
       </c>
       <c r="L52" t="n">
-        <v>103876.573800343</v>
+        <v>141782.7573037169</v>
       </c>
     </row>
     <row r="53">
@@ -2441,37 +2441,37 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>99719.54995608199</v>
+        <v>86899.1425429145</v>
       </c>
       <c r="C53" t="n">
-        <v>19.70846498298638</v>
+        <v>854.5876728754076</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0001976389282910551</v>
+        <v>0.009834247472043534</v>
       </c>
       <c r="E53" t="n">
-        <v>0.9998023610717089</v>
+        <v>0.9901657525279565</v>
       </c>
       <c r="F53" t="n">
-        <v>69.61435804115291</v>
+        <v>25.89100383795833</v>
       </c>
       <c r="G53" t="n">
-        <v>16864.77878915228</v>
+        <v>14696.56468163674</v>
       </c>
       <c r="H53" t="n">
-        <v>444317.5848940253</v>
+        <v>240982.1418639054</v>
       </c>
       <c r="I53" t="n">
-        <v>9989384.660904536</v>
+        <v>3088854.509436711</v>
       </c>
       <c r="J53" t="n">
-        <v>3.218991371712838</v>
+        <v>139.5801422248183</v>
       </c>
       <c r="K53" t="n">
-        <v>1648.834609423287</v>
+        <v>6443.9747694295</v>
       </c>
       <c r="L53" t="n">
-        <v>102224.6213071404</v>
+        <v>135202.3136671367</v>
       </c>
     </row>
     <row r="54">
@@ -2479,37 +2479,37 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>99699.841491099</v>
+        <v>86044.55487003909</v>
       </c>
       <c r="C54" t="n">
-        <v>21.06978882979934</v>
+        <v>904.5077115157237</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0002113322199381873</v>
+        <v>0.01051208542925097</v>
       </c>
       <c r="E54" t="n">
-        <v>0.9997886677800618</v>
+        <v>0.989487914570749</v>
       </c>
       <c r="F54" t="n">
-        <v>68.6280204290254</v>
+        <v>25.14318526785386</v>
       </c>
       <c r="G54" t="n">
-        <v>16284.01449823897</v>
+        <v>14053.69113975299</v>
       </c>
       <c r="H54" t="n">
-        <v>427452.806104873</v>
+        <v>226285.5771822686</v>
       </c>
       <c r="I54" t="n">
-        <v>9545067.07601051</v>
+        <v>2847872.367572806</v>
       </c>
       <c r="J54" t="n">
-        <v>3.323486115753837</v>
+        <v>142.6743687418064</v>
       </c>
       <c r="K54" t="n">
-        <v>1645.615618051575</v>
+        <v>6304.394627204682</v>
       </c>
       <c r="L54" t="n">
-        <v>100575.7866977171</v>
+        <v>128758.3388977072</v>
       </c>
     </row>
     <row r="55">
@@ -2517,37 +2517,37 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>99678.77170226919</v>
+        <v>85140.04715852338</v>
       </c>
       <c r="C55" t="n">
-        <v>22.52579102817444</v>
+        <v>956.706634017176</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0002259838343058318</v>
+        <v>0.01123685816424169</v>
       </c>
       <c r="E55" t="n">
-        <v>0.9997740161656942</v>
+        <v>0.9887631418357583</v>
       </c>
       <c r="F55" t="n">
-        <v>67.64242111815226</v>
+        <v>24.40498863601014</v>
       </c>
       <c r="G55" t="n">
-        <v>15723.03436280064</v>
+        <v>13429.73899319684</v>
       </c>
       <c r="H55" t="n">
-        <v>411168.791606634</v>
+        <v>212231.8860425157</v>
       </c>
       <c r="I55" t="n">
-        <v>9117614.269905638</v>
+        <v>2621586.790390537</v>
       </c>
       <c r="J55" t="n">
-        <v>3.431471608973827</v>
+        <v>145.7401273340726</v>
       </c>
       <c r="K55" t="n">
-        <v>1642.292131935821</v>
+        <v>6161.720258462875</v>
       </c>
       <c r="L55" t="n">
-        <v>98930.17107966557</v>
+        <v>122453.9442705025</v>
       </c>
     </row>
     <row r="56">
@@ -2555,37 +2555,37 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>99656.24591124101</v>
+        <v>84183.3405245062</v>
       </c>
       <c r="C56" t="n">
-        <v>24.08301049299255</v>
+        <v>1011.191520394986</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0002416608238929863</v>
+        <v>0.01201177708195866</v>
       </c>
       <c r="E56" t="n">
-        <v>0.999758339176107</v>
+        <v>0.9879882229180413</v>
       </c>
       <c r="F56" t="n">
-        <v>66.65759764957187</v>
+        <v>23.67665831639682</v>
       </c>
       <c r="G56" t="n">
-        <v>15181.15737083847</v>
+        <v>12824.08873442479</v>
       </c>
       <c r="H56" t="n">
-        <v>395445.7572438334</v>
+        <v>198802.1470493188</v>
       </c>
       <c r="I56" t="n">
-        <v>8706445.478299001</v>
+        <v>2409354.904348021</v>
       </c>
       <c r="J56" t="n">
-        <v>3.543054292667903</v>
+        <v>148.7648920838738</v>
       </c>
       <c r="K56" t="n">
-        <v>1638.860660326847</v>
+        <v>6015.980131128803</v>
       </c>
       <c r="L56" t="n">
-        <v>97287.87894772974</v>
+        <v>116292.2240120396</v>
       </c>
     </row>
     <row r="57">
@@ -2593,37 +2593,37 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>99632.16290074802</v>
+        <v>83172.14900411121</v>
       </c>
       <c r="C57" t="n">
-        <v>25.74843109621721</v>
+        <v>1067.952663016599</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0002584349305140288</v>
+        <v>0.0128402677555417</v>
       </c>
       <c r="E57" t="n">
-        <v>0.999741565069486</v>
+        <v>0.9871597322444583</v>
       </c>
       <c r="F57" t="n">
-        <v>65.6735892136612</v>
+        <v>22.9584358181357</v>
       </c>
       <c r="G57" t="n">
-        <v>14657.72572561044</v>
+        <v>12236.15459724917</v>
       </c>
       <c r="H57" t="n">
-        <v>380264.5998729949</v>
+        <v>185978.058314894</v>
       </c>
       <c r="I57" t="n">
-        <v>8310999.721055171</v>
+        <v>2210552.757298702</v>
       </c>
       <c r="J57" t="n">
-        <v>3.658343469947488</v>
+        <v>151.7349789725164</v>
       </c>
       <c r="K57" t="n">
-        <v>1635.317606034179</v>
+        <v>5867.215239044928</v>
       </c>
       <c r="L57" t="n">
-        <v>95649.01828740288</v>
+        <v>110276.2438809108</v>
       </c>
     </row>
     <row r="58">
@@ -2631,37 +2631,37 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>99606.41446965181</v>
+        <v>82104.19634109462</v>
       </c>
       <c r="C58" t="n">
-        <v>27.52951097659311</v>
+        <v>1126.960836001979</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0002763829129195372</v>
+        <v>0.01372598339943698</v>
       </c>
       <c r="E58" t="n">
-        <v>0.9997236170870805</v>
+        <v>0.986274016600563</v>
       </c>
       <c r="F58" t="n">
-        <v>64.69043669963986</v>
+        <v>22.25055908841928</v>
       </c>
       <c r="G58" t="n">
-        <v>14152.10404774791</v>
+        <v>11665.38455944439</v>
       </c>
       <c r="H58" t="n">
-        <v>365606.8741473845</v>
+        <v>173741.9037176448</v>
       </c>
       <c r="I58" t="n">
-        <v>7930735.121182175</v>
+        <v>2024574.698983808</v>
       </c>
       <c r="J58" t="n">
-        <v>3.777451316957622</v>
+        <v>154.6354999816334</v>
       </c>
       <c r="K58" t="n">
-        <v>1631.659262564232</v>
+        <v>5715.480260072412</v>
       </c>
       <c r="L58" t="n">
-        <v>94013.7006813687</v>
+        <v>104409.0286418659</v>
       </c>
     </row>
     <row r="59">
@@ -2669,37 +2669,37 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>99578.88495867522</v>
+        <v>80977.23550509264</v>
       </c>
       <c r="C59" t="n">
-        <v>29.43421363736316</v>
+        <v>1188.164325387348</v>
       </c>
       <c r="D59" t="n">
-        <v>0.000295586897258171</v>
+        <v>0.01467281907039941</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9997044131027418</v>
+        <v>0.9853271809296006</v>
       </c>
       <c r="F59" t="n">
-        <v>63.70818274421997</v>
+        <v>21.55326179370308</v>
       </c>
       <c r="G59" t="n">
-        <v>13663.67860468512</v>
+        <v>11111.26039116277</v>
       </c>
       <c r="H59" t="n">
-        <v>351454.7700996366</v>
+        <v>162076.5191582005</v>
       </c>
       <c r="I59" t="n">
-        <v>7565128.24703479</v>
+        <v>1850832.795266164</v>
       </c>
       <c r="J59" t="n">
-        <v>3.900492886148889</v>
+        <v>157.450324844636</v>
       </c>
       <c r="K59" t="n">
-        <v>1627.881811247274</v>
+        <v>5560.844760090779</v>
       </c>
       <c r="L59" t="n">
-        <v>92382.04141880448</v>
+        <v>98693.5483817935</v>
       </c>
     </row>
     <row r="60">
@@ -2707,37 +2707,37 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>99549.45074503786</v>
+        <v>79789.07117970529</v>
       </c>
       <c r="C60" t="n">
-        <v>31.47104091985641</v>
+        <v>1251.485726310962</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0003161347519682334</v>
+        <v>0.01568492661723431</v>
       </c>
       <c r="E60" t="n">
-        <v>0.9996838652480318</v>
+        <v>0.9843150733827657</v>
       </c>
       <c r="F60" t="n">
-        <v>62.72687177907248</v>
+        <v>20.8667725819159</v>
       </c>
       <c r="G60" t="n">
-        <v>13191.85656647405</v>
+        <v>10573.29773994084</v>
       </c>
       <c r="H60" t="n">
-        <v>337791.0914949515</v>
+        <v>150965.2587670377</v>
       </c>
       <c r="I60" t="n">
-        <v>7213673.476935154</v>
+        <v>1688756.276107963</v>
       </c>
       <c r="J60" t="n">
-        <v>4.027586100518403</v>
+        <v>160.162052762194</v>
       </c>
       <c r="K60" t="n">
-        <v>1623.981318361125</v>
+        <v>5403.394435246143</v>
       </c>
       <c r="L60" t="n">
-        <v>90754.1596075572</v>
+        <v>93132.70362170273</v>
       </c>
     </row>
     <row r="61">
@@ -2745,37 +2745,37 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>99517.979704118</v>
+        <v>78537.58545339433</v>
       </c>
       <c r="C61" t="n">
-        <v>33.64906794079557</v>
+        <v>1316.81852136393</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0003381204887884515</v>
+        <v>0.01676673039745225</v>
       </c>
       <c r="E61" t="n">
-        <v>0.9996618795112115</v>
+        <v>0.9832332696025478</v>
       </c>
       <c r="F61" t="n">
-        <v>61.74655007674188</v>
+        <v>20.1913143287769</v>
       </c>
       <c r="G61" t="n">
-        <v>12736.06528709019</v>
+        <v>10051.04624107904</v>
       </c>
       <c r="H61" t="n">
-        <v>324599.2349284774</v>
+        <v>140391.9610270968</v>
       </c>
       <c r="I61" t="n">
-        <v>6875882.385440202</v>
+        <v>1537791.017340926</v>
       </c>
       <c r="J61" t="n">
-        <v>4.158851737500786</v>
+        <v>162.7519967323682</v>
       </c>
       <c r="K61" t="n">
-        <v>1619.953732260607</v>
+        <v>5243.23238248395</v>
       </c>
       <c r="L61" t="n">
-        <v>89130.17828919608</v>
+        <v>87729.30918645656</v>
       </c>
     </row>
     <row r="62">
@@ -2783,37 +2783,37 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>99484.3306361772</v>
+        <v>77220.7669320304</v>
       </c>
       <c r="C62" t="n">
-        <v>35.97798008252769</v>
+        <v>1384.023464032941</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0003616446917062976</v>
+        <v>0.01792294377561876</v>
       </c>
       <c r="E62" t="n">
-        <v>0.9996383553082937</v>
+        <v>0.9820770562243812</v>
       </c>
       <c r="F62" t="n">
-        <v>60.76726579459908</v>
+        <v>19.52710337165129</v>
       </c>
       <c r="G62" t="n">
-        <v>12295.75161036648</v>
+        <v>9544.089639911283</v>
       </c>
       <c r="H62" t="n">
-        <v>311863.1696413872</v>
+        <v>130340.9147860178</v>
       </c>
       <c r="I62" t="n">
-        <v>6551283.150511726</v>
+        <v>1397399.056313829</v>
       </c>
       <c r="J62" t="n">
-        <v>4.294413401220906</v>
+        <v>165.2001834987304</v>
       </c>
       <c r="K62" t="n">
-        <v>1615.794880523106</v>
+        <v>5080.480385751582</v>
       </c>
       <c r="L62" t="n">
-        <v>87510.22455693547</v>
+        <v>82486.07680397262</v>
       </c>
     </row>
     <row r="63">
@@ -2821,37 +2821,37 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>99448.35265609466</v>
+        <v>75836.74346799745</v>
       </c>
       <c r="C63" t="n">
-        <v>38.46811212319709</v>
+        <v>1452.924803082551</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0003868149757716433</v>
+        <v>0.01915858641392842</v>
       </c>
       <c r="E63" t="n">
-        <v>0.9996131850242284</v>
+        <v>0.9808414135860716</v>
       </c>
       <c r="F63" t="n">
-        <v>59.78906901637676</v>
+        <v>18.87434873471277</v>
       </c>
       <c r="G63" t="n">
-        <v>11870.38119972384</v>
+        <v>9052.045909939241</v>
       </c>
       <c r="H63" t="n">
-        <v>299567.4180310207</v>
+        <v>120796.8251461065</v>
       </c>
       <c r="I63" t="n">
-        <v>6239419.980870338</v>
+        <v>1267058.141527811</v>
       </c>
       <c r="J63" t="n">
-        <v>4.434397481478133</v>
+        <v>167.485372480268</v>
       </c>
       <c r="K63" t="n">
-        <v>1611.500467121885</v>
+        <v>4915.280202252851</v>
       </c>
       <c r="L63" t="n">
-        <v>85894.42967641237</v>
+        <v>77405.59641822104</v>
       </c>
     </row>
     <row r="64">
@@ -2859,37 +2859,37 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>99409.88454397146</v>
+        <v>74383.8186649149</v>
       </c>
       <c r="C64" t="n">
-        <v>41.13048959360702</v>
+        <v>1523.306398007207</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0004137464778506406</v>
+        <v>0.02047900236030387</v>
       </c>
       <c r="E64" t="n">
-        <v>0.9995862535221494</v>
+        <v>0.9795209976396961</v>
       </c>
       <c r="F64" t="n">
-        <v>58.81201179078059</v>
+        <v>18.23325134950613</v>
       </c>
       <c r="G64" t="n">
-        <v>11459.43789089648</v>
+        <v>8574.56734799106</v>
       </c>
       <c r="H64" t="n">
-        <v>287697.0368312969</v>
+        <v>111744.7792361673</v>
       </c>
       <c r="I64" t="n">
-        <v>5939852.562839317</v>
+        <v>1146261.316381704</v>
       </c>
       <c r="J64" t="n">
-        <v>4.578933097856597</v>
+        <v>169.5850974041425</v>
       </c>
       <c r="K64" t="n">
-        <v>1607.066069640407</v>
+        <v>4747.794829772583</v>
       </c>
       <c r="L64" t="n">
-        <v>84282.92920929048</v>
+        <v>72490.3162159682</v>
       </c>
     </row>
     <row r="65">
@@ -2897,37 +2897,37 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>99368.75405437786</v>
+        <v>72860.5122669077</v>
       </c>
       <c r="C65" t="n">
-        <v>43.97687244349535</v>
+        <v>1594.907792515265</v>
       </c>
       <c r="D65" t="n">
-        <v>0.00044256238152518</v>
+        <v>0.02188987893294914</v>
       </c>
       <c r="E65" t="n">
-        <v>0.9995574376184748</v>
+        <v>0.9781101210670509</v>
       </c>
       <c r="F65" t="n">
-        <v>57.83614816661589</v>
+        <v>17.60400327531219</v>
       </c>
       <c r="G65" t="n">
-        <v>11062.42306687943</v>
+        <v>8111.3406244886</v>
       </c>
       <c r="H65" t="n">
-        <v>276237.5989404004</v>
+        <v>103170.2118881762</v>
       </c>
       <c r="I65" t="n">
-        <v>5652155.526008019</v>
+        <v>1034516.537145537</v>
       </c>
       <c r="J65" t="n">
-        <v>4.728152027038462</v>
+        <v>171.4757347014539</v>
       </c>
       <c r="K65" t="n">
-        <v>1602.48713654255</v>
+        <v>4578.20973236844</v>
       </c>
       <c r="L65" t="n">
-        <v>82675.86313965009</v>
+        <v>67742.52138619561</v>
       </c>
     </row>
     <row r="66">
@@ -2935,37 +2935,37 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>99324.77718193436</v>
+        <v>71265.60447439243</v>
       </c>
       <c r="C66" t="n">
-        <v>47.01980109603046</v>
+        <v>1667.420332517737</v>
       </c>
       <c r="D66" t="n">
-        <v>0.00047339447849859</v>
+        <v>0.02339726639260997</v>
       </c>
       <c r="E66" t="n">
-        <v>0.9995266055215014</v>
+        <v>0.97660273360739</v>
       </c>
       <c r="F66" t="n">
-        <v>56.86153422380992</v>
+        <v>16.98678692400494</v>
       </c>
       <c r="G66" t="n">
-        <v>10678.85505435412</v>
+        <v>7662.086763597465</v>
       </c>
       <c r="H66" t="n">
-        <v>265175.175873521</v>
+        <v>95058.87126368762</v>
       </c>
       <c r="I66" t="n">
-        <v>5375917.927067619</v>
+        <v>931346.3252573608</v>
       </c>
       <c r="J66" t="n">
-        <v>4.882188611262625</v>
+        <v>173.1326030278144</v>
       </c>
       <c r="K66" t="n">
-        <v>1597.758984515512</v>
+        <v>4406.733997666985</v>
       </c>
       <c r="L66" t="n">
-        <v>81073.37600310752</v>
+        <v>63164.31165382717</v>
       </c>
     </row>
     <row r="67">
@@ -2973,37 +2973,37 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>99277.75738083833</v>
+        <v>69598.18414187469</v>
       </c>
       <c r="C67" t="n">
-        <v>50.27264496363091</v>
+        <v>1740.48343731896</v>
       </c>
       <c r="D67" t="n">
-        <v>0.000506383769032781</v>
+        <v>0.02500759838462185</v>
       </c>
       <c r="E67" t="n">
-        <v>0.9994936162309672</v>
+        <v>0.9749924016153781</v>
       </c>
       <c r="F67" t="n">
-        <v>55.88822809964461</v>
+        <v>16.38177429434975</v>
       </c>
       <c r="G67" t="n">
-        <v>10308.26854087526</v>
+        <v>7226.56102453623</v>
       </c>
       <c r="H67" t="n">
-        <v>254496.3208191669</v>
+        <v>87396.78450009014</v>
       </c>
       <c r="I67" t="n">
-        <v>5110742.751194099</v>
+        <v>836287.4539936732</v>
       </c>
       <c r="J67" t="n">
-        <v>5.041179645694146</v>
+        <v>174.5300985103852</v>
       </c>
       <c r="K67" t="n">
-        <v>1592.876795904249</v>
+        <v>4233.601394639171</v>
       </c>
       <c r="L67" t="n">
-        <v>79475.61701859202</v>
+        <v>58757.57765616019</v>
       </c>
     </row>
     <row r="68">
@@ -3011,37 +3011,37 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>99227.48473587471</v>
+        <v>67857.70070455573</v>
       </c>
       <c r="C68" t="n">
-        <v>53.74965348919333</v>
+        <v>1813.68115754562</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0005416811041040193</v>
+        <v>0.02672771312193689</v>
       </c>
       <c r="E68" t="n">
-        <v>0.999458318895896</v>
+        <v>0.9732722868780631</v>
       </c>
       <c r="F68" t="n">
-        <v>54.9162900094454</v>
+        <v>15.78912622091889</v>
       </c>
       <c r="G68" t="n">
-        <v>9950.214012129227</v>
+        <v>6804.552651703267</v>
       </c>
       <c r="H68" t="n">
-        <v>244188.0522782916</v>
+        <v>80170.22347555392</v>
       </c>
       <c r="I68" t="n">
-        <v>4856246.430374931</v>
+        <v>748890.669493583</v>
       </c>
       <c r="J68" t="n">
-        <v>5.205264242135323</v>
+        <v>175.6418704709403</v>
       </c>
       <c r="K68" t="n">
-        <v>1587.835616258555</v>
+        <v>4059.071296128787</v>
       </c>
       <c r="L68" t="n">
-        <v>77882.74022268776</v>
+        <v>54523.97626152102</v>
       </c>
     </row>
     <row r="69">
@@ -3049,37 +3049,37 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>99173.73508238551</v>
+        <v>66044.0195470101</v>
       </c>
       <c r="C69" t="n">
-        <v>57.46600976748481</v>
+        <v>1886.539180523756</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0005794478721583562</v>
+        <v>0.02856487526748608</v>
       </c>
       <c r="E69" t="n">
-        <v>0.9994205521278416</v>
+        <v>0.9714351247325139</v>
       </c>
       <c r="F69" t="n">
-        <v>53.94578226089429</v>
+        <v>15.20899164298757</v>
       </c>
       <c r="G69" t="n">
-        <v>9604.257208600104</v>
+        <v>6395.884457637597</v>
       </c>
       <c r="H69" t="n">
-        <v>234237.8382661624</v>
+        <v>73365.67082385065</v>
       </c>
       <c r="I69" t="n">
-        <v>4612058.37809664</v>
+        <v>668720.446018029</v>
       </c>
       <c r="J69" t="n">
-        <v>5.374583666375218</v>
+        <v>176.4410423943665</v>
       </c>
       <c r="K69" t="n">
-        <v>1582.630352016419</v>
+        <v>3883.429425657847</v>
       </c>
       <c r="L69" t="n">
-        <v>76294.90460642921</v>
+        <v>50464.90496539223</v>
       </c>
     </row>
     <row r="70">
@@ -3087,37 +3087,37 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>99116.26907261803</v>
+        <v>64157.48036648634</v>
       </c>
       <c r="C70" t="n">
-        <v>61.4378867874231</v>
+        <v>1958.522472796522</v>
       </c>
       <c r="D70" t="n">
-        <v>0.00061985673353393</v>
+        <v>0.03052679845917994</v>
       </c>
       <c r="E70" t="n">
-        <v>0.9993801432664661</v>
+        <v>0.9694732015408201</v>
       </c>
       <c r="F70" t="n">
-        <v>52.97676926105252</v>
+        <v>14.64150689891691</v>
       </c>
       <c r="G70" t="n">
-        <v>9269.97860100527</v>
+        <v>6000.412199292995</v>
       </c>
       <c r="H70" t="n">
-        <v>224633.5810575623</v>
+        <v>66969.78636621305</v>
       </c>
       <c r="I70" t="n">
-        <v>4377820.539830478</v>
+        <v>595354.7751941785</v>
       </c>
       <c r="J70" t="n">
-        <v>5.549281146107583</v>
+        <v>176.9004827611128</v>
       </c>
       <c r="K70" t="n">
-        <v>1577.255768350044</v>
+        <v>3706.98838326348</v>
       </c>
       <c r="L70" t="n">
-        <v>74712.27425441278</v>
+        <v>46581.47553973438</v>
       </c>
     </row>
     <row r="71">
@@ -3125,37 +3125,37 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>99054.83118583061</v>
+        <v>62198.95789368982</v>
       </c>
       <c r="C71" t="n">
-        <v>65.68250632014765</v>
+        <v>2029.033779438385</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0006630924058305121</v>
+        <v>0.03262166840329384</v>
       </c>
       <c r="E71" t="n">
-        <v>0.9993369075941695</v>
+        <v>0.9673783315967062</v>
       </c>
       <c r="F71" t="n">
-        <v>52.00931751508751</v>
+        <v>14.08679505162318</v>
       </c>
       <c r="G71" t="n">
-        <v>8946.972883887087</v>
+        <v>5618.023704839562</v>
       </c>
       <c r="H71" t="n">
-        <v>215363.602456557</v>
+        <v>60969.37416692008</v>
       </c>
       <c r="I71" t="n">
-        <v>4153186.958772915</v>
+        <v>528384.9888279653</v>
       </c>
       <c r="J71" t="n">
-        <v>5.729501646106119</v>
+        <v>176.9931299916177</v>
       </c>
       <c r="K71" t="n">
-        <v>1571.706487203937</v>
+        <v>3530.087900502368</v>
       </c>
       <c r="L71" t="n">
-        <v>73135.01848606275</v>
+        <v>42874.4871564709</v>
       </c>
     </row>
     <row r="72">
@@ -3163,37 +3163,37 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>98989.14867951046</v>
+        <v>60169.92411425144</v>
       </c>
       <c r="C72" t="n">
-        <v>70.21820045729089</v>
+        <v>2097.413229552878</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0007093525037237258</v>
+        <v>0.03485816644159767</v>
       </c>
       <c r="E72" t="n">
-        <v>0.9992906474962763</v>
+        <v>0.9651418335584023</v>
       </c>
       <c r="F72" t="n">
-        <v>51.04349561560017</v>
+        <v>13.54496525076957</v>
       </c>
       <c r="G72" t="n">
-        <v>8634.848486771683</v>
+        <v>5248.637705424102</v>
       </c>
       <c r="H72" t="n">
-        <v>206416.6295726699</v>
+        <v>55351.35046208051</v>
       </c>
       <c r="I72" t="n">
-        <v>3937823.356316358</v>
+        <v>467415.6146610453</v>
       </c>
       <c r="J72" t="n">
-        <v>5.915391606982904</v>
+        <v>176.6923751060578</v>
       </c>
       <c r="K72" t="n">
-        <v>1565.976985557831</v>
+        <v>3353.09477051075</v>
       </c>
       <c r="L72" t="n">
-        <v>71563.31199885882</v>
+        <v>39344.39925596854</v>
       </c>
     </row>
     <row r="73">
@@ -3201,37 +3201,37 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>98918.93047905316</v>
+        <v>58072.51088469856</v>
       </c>
       <c r="C73" t="n">
-        <v>75.06447577981208</v>
+        <v>2162.939325176322</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0007588484369602799</v>
+        <v>0.03724549347402561</v>
       </c>
       <c r="E73" t="n">
-        <v>0.9992411515630397</v>
+        <v>0.9627545065259744</v>
       </c>
       <c r="F73" t="n">
-        <v>50.07937422134087</v>
+        <v>13.01611213729468</v>
       </c>
       <c r="G73" t="n">
-        <v>8333.227102329703</v>
+        <v>4892.202324277889</v>
       </c>
       <c r="H73" t="n">
-        <v>197781.7810858982</v>
+        <v>50102.71275665642</v>
       </c>
       <c r="I73" t="n">
-        <v>3731406.726743688</v>
+        <v>412064.2641989648</v>
       </c>
       <c r="J73" t="n">
-        <v>6.107098643538079</v>
+        <v>175.972504724958</v>
       </c>
       <c r="K73" t="n">
-        <v>1560.061593950848</v>
+        <v>3176.402395404692</v>
       </c>
       <c r="L73" t="n">
-        <v>69997.335013301</v>
+        <v>35991.30448545779</v>
       </c>
     </row>
     <row r="74">
@@ -3239,37 +3239,37 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>98843.86600327335</v>
+        <v>55909.57155952224</v>
       </c>
       <c r="C74" t="n">
-        <v>80.24208010800015</v>
+        <v>2224.831614558189</v>
       </c>
       <c r="D74" t="n">
-        <v>0.000811806370517143</v>
+        <v>0.03979339409155724</v>
       </c>
       <c r="E74" t="n">
-        <v>0.9991881936294829</v>
+        <v>0.9602066059084428</v>
       </c>
       <c r="F74" t="n">
-        <v>49.11702602398579</v>
+        <v>12.50031529580486</v>
       </c>
       <c r="G74" t="n">
-        <v>8041.743230997108</v>
+        <v>4548.693174565298</v>
       </c>
       <c r="H74" t="n">
-        <v>189448.5539835685</v>
+        <v>45210.51043237853</v>
       </c>
       <c r="I74" t="n">
-        <v>3533624.94565779</v>
+        <v>361961.5514423085</v>
       </c>
       <c r="J74" t="n">
-        <v>6.304771198295023</v>
+        <v>174.8092056642009</v>
       </c>
       <c r="K74" t="n">
-        <v>1553.95449530731</v>
+        <v>3000.429890679734</v>
       </c>
       <c r="L74" t="n">
-        <v>68437.27341935014</v>
+        <v>32814.9020900531</v>
       </c>
     </row>
     <row r="75">
@@ -3277,37 +3277,37 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>98763.62392316535</v>
+        <v>53684.73994496404</v>
       </c>
       <c r="C75" t="n">
-        <v>85.77307174847969</v>
+        <v>2282.255367674975</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0008684682511772568</v>
+        <v>0.04251218074288288</v>
       </c>
       <c r="E75" t="n">
-        <v>0.9991315317488227</v>
+        <v>0.9574878192571171</v>
       </c>
       <c r="F75" t="n">
-        <v>48.15652570151752</v>
+        <v>11.99763876020356</v>
       </c>
       <c r="G75" t="n">
-        <v>7760.043741537212</v>
+        <v>4218.111017777842</v>
       </c>
       <c r="H75" t="n">
-        <v>181406.8107525714</v>
+        <v>40661.81725781323</v>
       </c>
       <c r="I75" t="n">
-        <v>3344176.391674222</v>
+        <v>316751.0410099299</v>
       </c>
       <c r="J75" t="n">
-        <v>6.508558145434724</v>
+        <v>173.1801305519452</v>
       </c>
       <c r="K75" t="n">
-        <v>1547.649724109015</v>
+        <v>2825.620685015533</v>
       </c>
       <c r="L75" t="n">
-        <v>66883.31892404283</v>
+        <v>29814.47219937336</v>
       </c>
     </row>
     <row r="76">
@@ -3315,37 +3315,37 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>98677.85085141686</v>
+        <v>51402.48457728907</v>
       </c>
       <c r="C76" t="n">
-        <v>91.68089111213195</v>
+        <v>2334.328578464405</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0009290929050550512</v>
+        <v>0.04541275772291697</v>
       </c>
       <c r="E76" t="n">
-        <v>0.9990709070949449</v>
+        <v>0.954587242277083</v>
       </c>
       <c r="F76" t="n">
-        <v>47.19794985661422</v>
+        <v>11.50813057770718</v>
       </c>
       <c r="G76" t="n">
-        <v>7487.78744704763</v>
+        <v>3900.478936701103</v>
       </c>
       <c r="H76" t="n">
-        <v>173646.7670110342</v>
+        <v>36443.70624003538</v>
       </c>
       <c r="I76" t="n">
-        <v>3162769.580921651</v>
+        <v>276089.2237521167</v>
       </c>
       <c r="J76" t="n">
-        <v>6.718608339880079</v>
+        <v>171.0655215611883</v>
       </c>
       <c r="K76" t="n">
-        <v>1541.14116596358</v>
+        <v>2652.440554463588</v>
       </c>
       <c r="L76" t="n">
-        <v>65335.66919993382</v>
+        <v>26988.85151435783</v>
       </c>
     </row>
     <row r="77">
@@ -3353,37 +3353,37 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>98586.16996030473</v>
+        <v>49068.15599882467</v>
       </c>
       <c r="C77" t="n">
-        <v>97.99043452779212</v>
+        <v>2380.131610631949</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0009939572109074479</v>
+        <v>0.04850664473083033</v>
       </c>
       <c r="E77" t="n">
-        <v>0.9990060427890926</v>
+        <v>0.9514933552691697</v>
       </c>
       <c r="F77" t="n">
-        <v>46.2413769383001</v>
+        <v>11.03182243610157</v>
       </c>
       <c r="G77" t="n">
-        <v>7224.644695938054</v>
+        <v>3595.838981462688</v>
       </c>
       <c r="H77" t="n">
-        <v>166158.9795639866</v>
+        <v>32543.22730333428</v>
       </c>
       <c r="I77" t="n">
-        <v>2989122.813910616</v>
+        <v>239645.5175120813</v>
       </c>
       <c r="J77" t="n">
-        <v>6.935070105819514</v>
+        <v>168.4488864688944</v>
       </c>
       <c r="K77" t="n">
-        <v>1534.4225576237</v>
+        <v>2481.375032902399</v>
       </c>
       <c r="L77" t="n">
-        <v>63794.52803397024</v>
+        <v>24336.41095989425</v>
       </c>
     </row>
     <row r="78">
@@ -3391,37 +3391,37 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>98488.17952577694</v>
+        <v>46688.02438819272</v>
       </c>
       <c r="C78" t="n">
-        <v>104.7281300184744</v>
+        <v>2418.719777425104</v>
       </c>
       <c r="D78" t="n">
-        <v>0.001063357354382455</v>
+        <v>0.05180599969950306</v>
       </c>
       <c r="E78" t="n">
-        <v>0.9989366426456175</v>
+        <v>0.9481940003004969</v>
       </c>
       <c r="F78" t="n">
-        <v>45.28688714494282</v>
+        <v>10.56872935872705</v>
       </c>
       <c r="G78" t="n">
-        <v>6970.296977426729</v>
+        <v>3304.248254379315</v>
       </c>
       <c r="H78" t="n">
-        <v>158934.3348680486</v>
+        <v>28947.38832187159</v>
       </c>
       <c r="I78" t="n">
-        <v>2822963.83434663</v>
+        <v>207102.290208747</v>
       </c>
       <c r="J78" t="n">
-        <v>7.158090658428628</v>
+        <v>165.3177178002611</v>
       </c>
       <c r="K78" t="n">
-        <v>1527.48748751788</v>
+        <v>2312.926146433505</v>
       </c>
       <c r="L78" t="n">
-        <v>62260.10547634654</v>
+        <v>21855.03592699184</v>
       </c>
     </row>
     <row r="79">
@@ -3429,37 +3429,37 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>98383.45139575847</v>
+        <v>44269.30461076761</v>
       </c>
       <c r="C79" t="n">
-        <v>111.9220147398419</v>
+        <v>2449.13909553661</v>
       </c>
       <c r="D79" t="n">
-        <v>0.001137610168702285</v>
+        <v>0.05532364054665784</v>
       </c>
       <c r="E79" t="n">
-        <v>0.9988623898312977</v>
+        <v>0.9446763594533422</v>
       </c>
       <c r="F79" t="n">
-        <v>44.33456230650197</v>
+        <v>10.11884947124336</v>
       </c>
       <c r="G79" t="n">
-        <v>6724.436541125251</v>
+        <v>3025.774409736597</v>
       </c>
       <c r="H79" t="n">
-        <v>151964.0378906218</v>
+        <v>25643.14006749227</v>
       </c>
       <c r="I79" t="n">
-        <v>2664029.499478581</v>
+        <v>178154.9018868754</v>
       </c>
       <c r="J79" t="n">
-        <v>7.387815452047699</v>
+        <v>161.6642418051333</v>
       </c>
       <c r="K79" t="n">
-        <v>1520.329396859451</v>
+        <v>2147.608428633244</v>
       </c>
       <c r="L79" t="n">
-        <v>60732.61798882866</v>
+        <v>19542.10978055834</v>
       </c>
     </row>
     <row r="80">
@@ -3467,37 +3467,37 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>98271.52938101863</v>
+        <v>41820.165515231</v>
       </c>
       <c r="C80" t="n">
-        <v>119.6018137013284</v>
+        <v>2470.445374187933</v>
       </c>
       <c r="D80" t="n">
-        <v>0.00121705456763177</v>
+        <v>0.05907306543988189</v>
       </c>
       <c r="E80" t="n">
-        <v>0.9987829454323682</v>
+        <v>0.9409269345601181</v>
       </c>
       <c r="F80" t="n">
-        <v>43.38448574373231</v>
+        <v>9.682163843720526</v>
       </c>
       <c r="G80" t="n">
-        <v>6486.766030302739</v>
+        <v>2760.490558705362</v>
       </c>
       <c r="H80" t="n">
-        <v>145239.6013494966</v>
+        <v>22617.36565775568</v>
       </c>
       <c r="I80" t="n">
-        <v>2512065.461587959</v>
+        <v>152511.7618193831</v>
       </c>
       <c r="J80" t="n">
-        <v>7.624387447451907</v>
+        <v>157.4861794956618</v>
       </c>
       <c r="K80" t="n">
-        <v>1512.941581407404</v>
+        <v>1985.94418682811</v>
       </c>
       <c r="L80" t="n">
-        <v>59212.28859196921</v>
+        <v>17394.50135192509</v>
       </c>
     </row>
     <row r="81">
@@ -3505,37 +3505,37 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>98151.9275673173</v>
+        <v>39349.72014104307</v>
       </c>
       <c r="C81" t="n">
-        <v>127.7990192990673</v>
+        <v>2481.726687618262</v>
       </c>
       <c r="D81" t="n">
-        <v>0.00130205307696496</v>
+        <v>0.06306847110279035</v>
       </c>
       <c r="E81" t="n">
-        <v>0.998697946923035</v>
+        <v>0.9369315288972097</v>
       </c>
       <c r="F81" t="n">
-        <v>42.43674210182656</v>
+        <v>9.258636411033525</v>
       </c>
       <c r="G81" t="n">
-        <v>6256.99812844185</v>
+        <v>2508.469587704772</v>
       </c>
       <c r="H81" t="n">
-        <v>138752.8353191938</v>
+        <v>19856.87509905032</v>
       </c>
       <c r="I81" t="n">
-        <v>2366825.860238462</v>
+        <v>129894.3961616274</v>
       </c>
       <c r="J81" t="n">
-        <v>7.867946290249458</v>
+        <v>152.7874970586858</v>
       </c>
       <c r="K81" t="n">
-        <v>1505.317193959952</v>
+        <v>1828.458007332449</v>
       </c>
       <c r="L81" t="n">
-        <v>57699.3470105618</v>
+        <v>15408.55716509698</v>
       </c>
     </row>
     <row r="82">
@@ -3543,37 +3543,37 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>98024.12854801823</v>
+        <v>36867.99345342481</v>
       </c>
       <c r="C82" t="n">
-        <v>136.5469710847305</v>
+        <v>2482.129128633119</v>
       </c>
       <c r="D82" t="n">
-        <v>0.001392993471172166</v>
+        <v>0.06732476861722303</v>
       </c>
       <c r="E82" t="n">
-        <v>0.9986070065288278</v>
+        <v>0.932675231382777</v>
       </c>
       <c r="F82" t="n">
-        <v>41.49141715574031</v>
+        <v>8.848213973909754</v>
       </c>
       <c r="G82" t="n">
-        <v>6034.855218720326</v>
+        <v>2269.777920924406</v>
       </c>
       <c r="H82" t="n">
-        <v>132495.837190752</v>
+        <v>17348.40551134554</v>
       </c>
       <c r="I82" t="n">
-        <v>2228073.024919269</v>
+        <v>110037.5210625771</v>
       </c>
       <c r="J82" t="n">
-        <v>8.118627391832311</v>
+        <v>147.5791178207919</v>
       </c>
       <c r="K82" t="n">
-        <v>1497.449247669703</v>
+        <v>1675.670510273763</v>
       </c>
       <c r="L82" t="n">
-        <v>56194.02981660184</v>
+        <v>13580.09915776453</v>
       </c>
     </row>
     <row r="83">
@@ -3581,37 +3581,37 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>97887.5815769335</v>
+        <v>34385.86432479169</v>
       </c>
       <c r="C83" t="n">
-        <v>145.8809350719604</v>
+        <v>2470.885550067378</v>
       </c>
       <c r="D83" t="n">
-        <v>0.001490290522269233</v>
+        <v>0.07185759609613496</v>
       </c>
       <c r="E83" t="n">
-        <v>0.9985097094777308</v>
+        <v>0.928142403903865</v>
       </c>
       <c r="F83" t="n">
-        <v>40.54859758417584</v>
+        <v>8.450826282298458</v>
       </c>
       <c r="G83" t="n">
-        <v>5820.069056072835</v>
+        <v>2044.468784487753</v>
       </c>
       <c r="H83" t="n">
-        <v>126460.9819720317</v>
+        <v>15078.62759042114</v>
       </c>
       <c r="I83" t="n">
-        <v>2095577.187728517</v>
+        <v>92689.11555123159</v>
       </c>
       <c r="J83" t="n">
-        <v>8.37656090357695</v>
+        <v>141.879562848277</v>
       </c>
       <c r="K83" t="n">
-        <v>1489.33062027787</v>
+        <v>1528.091392452971</v>
       </c>
       <c r="L83" t="n">
-        <v>54696.58056893214</v>
+        <v>11904.42864749077</v>
       </c>
     </row>
     <row r="84">
@@ -3619,37 +3619,37 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>97741.70064186153</v>
+        <v>31914.97877472431</v>
       </c>
       <c r="C84" t="n">
-        <v>155.8381817428753</v>
+        <v>2447.346769964409</v>
       </c>
       <c r="D84" t="n">
-        <v>0.001594387868427694</v>
+        <v>0.07668332751336915</v>
       </c>
       <c r="E84" t="n">
-        <v>0.9984056121315723</v>
+        <v>0.9233166724866309</v>
       </c>
       <c r="F84" t="n">
-        <v>39.60837070890699</v>
+        <v>8.066386202005688</v>
       </c>
       <c r="G84" t="n">
-        <v>5612.380451509104</v>
+        <v>1832.575060688849</v>
       </c>
       <c r="H84" t="n">
-        <v>120640.9129159588</v>
+        <v>13034.15880593339</v>
       </c>
       <c r="I84" t="n">
-        <v>1969116.205756485</v>
+        <v>77610.48796081047</v>
       </c>
       <c r="J84" t="n">
-        <v>8.64187057432142</v>
+        <v>135.7154825600558</v>
       </c>
       <c r="K84" t="n">
-        <v>1480.954059374293</v>
+        <v>1386.211829604694</v>
       </c>
       <c r="L84" t="n">
-        <v>53207.24994865427</v>
+        <v>10376.3372550378</v>
       </c>
     </row>
     <row r="85">
@@ -3657,37 +3657,37 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>97585.86246011866</v>
+        <v>29467.6320047599</v>
       </c>
       <c r="C85" t="n">
-        <v>166.45806175725</v>
+        <v>2411.014448453616</v>
       </c>
       <c r="D85" t="n">
-        <v>0.001705760010321966</v>
+        <v>0.08181907687947798</v>
       </c>
       <c r="E85" t="n">
-        <v>0.998294239989678</v>
+        <v>0.918180923120522</v>
       </c>
       <c r="F85" t="n">
-        <v>38.6708241958011</v>
+        <v>7.694789964778034</v>
       </c>
       <c r="G85" t="n">
-        <v>5411.538968385275</v>
+        <v>1634.101855327307</v>
       </c>
       <c r="H85" t="n">
-        <v>115028.5324644497</v>
+        <v>11201.58374524454</v>
       </c>
       <c r="I85" t="n">
-        <v>1848475.292840526</v>
+        <v>64576.32915487707</v>
       </c>
       <c r="J85" t="n">
-        <v>8.914672480415069</v>
+        <v>129.1220378671533</v>
       </c>
       <c r="K85" t="n">
-        <v>1472.312188799972</v>
+        <v>1250.496347044638</v>
       </c>
       <c r="L85" t="n">
-        <v>51726.29588927999</v>
+        <v>8990.125425433103</v>
       </c>
     </row>
     <row r="86">
@@ -3695,37 +3695,37 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>97419.40439836141</v>
+        <v>27056.61755630629</v>
       </c>
       <c r="C86" t="n">
-        <v>177.7820781842949</v>
+        <v>2361.574547873419</v>
       </c>
       <c r="D86" t="n">
-        <v>0.001824914443711023</v>
+        <v>0.08728269684704137</v>
       </c>
       <c r="E86" t="n">
-        <v>0.998175085556289</v>
+        <v>0.9127173031529586</v>
       </c>
       <c r="F86" t="n">
-        <v>37.73604571353208</v>
+        <v>7.335917501232633</v>
       </c>
       <c r="G86" t="n">
-        <v>5217.302630346613</v>
+        <v>1449.018938440292</v>
       </c>
       <c r="H86" t="n">
-        <v>109616.9934960644</v>
+        <v>9567.481889917231</v>
       </c>
       <c r="I86" t="n">
-        <v>1733446.760376076</v>
+        <v>53374.74540963253</v>
       </c>
       <c r="J86" t="n">
-        <v>9.195073616876602</v>
+        <v>122.1430868691264</v>
       </c>
       <c r="K86" t="n">
-        <v>1463.397516319557</v>
+        <v>1121.374309177485</v>
       </c>
       <c r="L86" t="n">
-        <v>50253.98370048001</v>
+        <v>7739.629078388466</v>
       </c>
     </row>
     <row r="87">
@@ -3733,37 +3733,37 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>97241.62232017712</v>
+        <v>24695.04300843287</v>
       </c>
       <c r="C87" t="n">
-        <v>189.8539538696469</v>
+        <v>2298.929976570143</v>
       </c>
       <c r="D87" t="n">
-        <v>0.001952393937284747</v>
+        <v>0.09309277071455613</v>
       </c>
       <c r="E87" t="n">
-        <v>0.9980476060627153</v>
+        <v>0.9069072292854439</v>
       </c>
       <c r="F87" t="n">
-        <v>36.80412254557547</v>
+        <v>6.98963285523144</v>
       </c>
       <c r="G87" t="n">
-        <v>5029.437640680742</v>
+        <v>1277.253257210115</v>
       </c>
       <c r="H87" t="n">
-        <v>104399.6908657178</v>
+        <v>8118.462951476939</v>
       </c>
       <c r="I87" t="n">
-        <v>1623829.766880012</v>
+        <v>43807.26351971531</v>
       </c>
       <c r="J87" t="n">
-        <v>9.483170337450774</v>
+        <v>114.8311326539714</v>
       </c>
       <c r="K87" t="n">
-        <v>1454.20244270268</v>
+        <v>999.2312223083586</v>
       </c>
       <c r="L87" t="n">
-        <v>48790.58618416045</v>
+        <v>6618.25476921098</v>
       </c>
     </row>
     <row r="88">
@@ -3771,37 +3771,37 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>97051.76836630747</v>
+        <v>22396.11303186272</v>
       </c>
       <c r="C88" t="n">
-        <v>202.7196923150593</v>
+        <v>2223.230711652836</v>
       </c>
       <c r="D88" t="n">
-        <v>0.002088778965365412</v>
+        <v>0.09926859667522969</v>
       </c>
       <c r="E88" t="n">
-        <v>0.9979112210346346</v>
+        <v>0.9007314033247703</v>
       </c>
       <c r="F88" t="n">
-        <v>35.87514115062583</v>
+        <v>6.655784677496341</v>
       </c>
       <c r="G88" t="n">
-        <v>4847.718112841756</v>
+        <v>1118.681757472267</v>
       </c>
       <c r="H88" t="n">
-        <v>99370.25322503709</v>
+        <v>6841.209694266824</v>
       </c>
       <c r="I88" t="n">
-        <v>1519430.076014294</v>
+        <v>35688.80056823836</v>
       </c>
       <c r="J88" t="n">
-        <v>9.779046630603569</v>
+        <v>107.2469899276183</v>
       </c>
       <c r="K88" t="n">
-        <v>1444.719272365229</v>
+        <v>884.4000896543872</v>
       </c>
       <c r="L88" t="n">
-        <v>47336.38374145777</v>
+        <v>5619.023546902623</v>
       </c>
     </row>
     <row r="89">
@@ -3809,37 +3809,37 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>96849.04867399241</v>
+        <v>20172.88232020989</v>
       </c>
       <c r="C89" t="n">
-        <v>216.4276301822862</v>
+        <v>2134.899424662352</v>
       </c>
       <c r="D89" t="n">
-        <v>0.002234690305640608</v>
+        <v>0.1058301630265069</v>
       </c>
       <c r="E89" t="n">
-        <v>0.9977653096943594</v>
+        <v>0.8941698369734931</v>
       </c>
       <c r="F89" t="n">
-        <v>34.94918666607324</v>
+        <v>6.33420679547107</v>
       </c>
       <c r="G89" t="n">
-        <v>4671.92581192671</v>
+        <v>973.1247844260672</v>
       </c>
       <c r="H89" t="n">
-        <v>94522.53511219533</v>
+        <v>5722.527936794557</v>
       </c>
       <c r="I89" t="n">
-        <v>1420059.822789257</v>
+        <v>28847.59087397154</v>
       </c>
       <c r="J89" t="n">
-        <v>10.08277221774356</v>
+        <v>99.45913369994506</v>
       </c>
       <c r="K89" t="n">
-        <v>1434.940225734626</v>
+        <v>777.1530997267689</v>
       </c>
       <c r="L89" t="n">
-        <v>45891.66446909255</v>
+        <v>4734.623457248235</v>
       </c>
     </row>
     <row r="90">
@@ -3847,37 +3847,37 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>96632.62104381013</v>
+        <v>18037.98289554754</v>
       </c>
       <c r="C90" t="n">
-        <v>231.0284792333288</v>
+        <v>2034.650431481878</v>
       </c>
       <c r="D90" t="n">
-        <v>0.002390791812721171</v>
+        <v>0.1127981129189399</v>
       </c>
       <c r="E90" t="n">
-        <v>0.9976092081872788</v>
+        <v>0.8872018870810601</v>
       </c>
       <c r="F90" t="n">
-        <v>34.0263423486089</v>
+        <v>6.024718855668603</v>
       </c>
       <c r="G90" t="n">
-        <v>4501.849906907196</v>
+        <v>840.3403606562514</v>
       </c>
       <c r="H90" t="n">
-        <v>89850.60930026862</v>
+        <v>4749.403152368489</v>
       </c>
       <c r="I90" t="n">
-        <v>1325537.287677062</v>
+        <v>23125.06293717698</v>
       </c>
       <c r="J90" t="n">
-        <v>10.39440045924835</v>
+        <v>91.54270265548311</v>
       </c>
       <c r="K90" t="n">
-        <v>1424.857453516882</v>
+        <v>677.6939660268238</v>
       </c>
       <c r="L90" t="n">
-        <v>44456.72424335791</v>
+        <v>3957.470357521466</v>
       </c>
     </row>
     <row r="91">
@@ -3885,37 +3885,37 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>96401.5925645768</v>
+        <v>16003.33246406566</v>
       </c>
       <c r="C91" t="n">
-        <v>246.5753551836452</v>
+        <v>1923.49969446613</v>
       </c>
       <c r="D91" t="n">
-        <v>0.002557793378967999</v>
+        <v>0.1201936970806057</v>
       </c>
       <c r="E91" t="n">
-        <v>0.997442206621032</v>
+        <v>0.8798063029193943</v>
       </c>
       <c r="F91" t="n">
-        <v>33.10668894539221</v>
+        <v>5.727127034011628</v>
       </c>
       <c r="G91" t="n">
-        <v>4337.286733439884</v>
+        <v>720.0196567367207</v>
       </c>
       <c r="H91" t="n">
-        <v>85348.75939336143</v>
+        <v>3909.062791712237</v>
       </c>
       <c r="I91" t="n">
-        <v>1235686.678376793</v>
+        <v>18375.65978480849</v>
       </c>
       <c r="J91" t="n">
-        <v>10.71396605323071</v>
+        <v>83.57814354383082</v>
       </c>
       <c r="K91" t="n">
-        <v>1414.463053057634</v>
+        <v>586.1512633713406</v>
       </c>
       <c r="L91" t="n">
-        <v>43031.86678984103</v>
+        <v>3279.776391494643</v>
       </c>
     </row>
     <row r="92">
@@ -3923,37 +3923,37 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>96155.01720939316</v>
+        <v>14079.83276959953</v>
       </c>
       <c r="C92" t="n">
-        <v>263.1237905687127</v>
+        <v>1802.763664369774</v>
       </c>
       <c r="D92" t="n">
-        <v>0.002736454094701246</v>
+        <v>0.128038712807883</v>
       </c>
       <c r="E92" t="n">
-        <v>0.9972635459052988</v>
+        <v>0.871961287192117</v>
       </c>
       <c r="F92" t="n">
-        <v>32.19030398849042</v>
+        <v>5.441224808991309</v>
       </c>
       <c r="G92" t="n">
-        <v>4178.039567101004</v>
+        <v>611.7839725559901</v>
       </c>
       <c r="H92" t="n">
-        <v>81011.47265992154</v>
+        <v>3189.043134975517</v>
       </c>
       <c r="I92" t="n">
-        <v>1150337.918983432</v>
+        <v>14466.59699309625</v>
       </c>
       <c r="J92" t="n">
-        <v>11.04148251136438</v>
+        <v>75.6495010551467</v>
       </c>
       <c r="K92" t="n">
-        <v>1403.749087004403</v>
+        <v>502.5731198275099</v>
       </c>
       <c r="L92" t="n">
-        <v>41617.4037367834</v>
+        <v>2693.625128123302</v>
       </c>
     </row>
     <row r="93">
@@ -3961,37 +3961,37 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>95891.89341882445</v>
+        <v>12277.06910522975</v>
       </c>
       <c r="C93" t="n">
-        <v>280.7317283067428</v>
+        <v>1674.045004669849</v>
       </c>
       <c r="D93" t="n">
-        <v>0.002927585620617568</v>
+        <v>0.1363554273679818</v>
       </c>
       <c r="E93" t="n">
-        <v>0.9970724143793824</v>
+        <v>0.8636445726320182</v>
       </c>
       <c r="F93" t="n">
-        <v>31.27726100448453</v>
+        <v>5.166793791847117</v>
       </c>
       <c r="G93" t="n">
-        <v>4023.918406910732</v>
+        <v>515.1835321436153</v>
       </c>
       <c r="H93" t="n">
-        <v>76833.43309282053</v>
+        <v>2577.259162419527</v>
       </c>
       <c r="I93" t="n">
-        <v>1069326.44632351</v>
+        <v>11277.55385812074</v>
       </c>
       <c r="J93" t="n">
-        <v>11.37693939564078</v>
+        <v>67.84237990689068</v>
       </c>
       <c r="K93" t="n">
-        <v>1392.707604493039</v>
+        <v>426.9236187723632</v>
       </c>
       <c r="L93" t="n">
-        <v>40213.654649779</v>
+        <v>2191.052008295792</v>
       </c>
     </row>
     <row r="94">
@@ -3999,37 +3999,37 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>95611.16169051771</v>
+        <v>10603.02410055991</v>
       </c>
       <c r="C94" t="n">
-        <v>299.4594921764898</v>
+        <v>1539.203726505986</v>
       </c>
       <c r="D94" t="n">
-        <v>0.003132055785974086</v>
+        <v>0.145166483817075</v>
       </c>
       <c r="E94" t="n">
-        <v>0.9968679442140259</v>
+        <v>0.854833516182925</v>
       </c>
       <c r="F94" t="n">
-        <v>30.36762863020487</v>
+        <v>4.903604607419382</v>
       </c>
       <c r="G94" t="n">
-        <v>3874.73976903417</v>
+        <v>429.6983576818286</v>
       </c>
       <c r="H94" t="n">
-        <v>72809.5146859098</v>
+        <v>2062.075630275911</v>
       </c>
       <c r="I94" t="n">
-        <v>992493.0132306898</v>
+        <v>8700.294695701212</v>
       </c>
       <c r="J94" t="n">
-        <v>11.72029929958411</v>
+        <v>60.24163143592496</v>
       </c>
       <c r="K94" t="n">
-        <v>1381.330665097398</v>
+        <v>359.0812388654725</v>
       </c>
       <c r="L94" t="n">
-        <v>38820.94704528596</v>
+        <v>1764.128389523429</v>
       </c>
     </row>
     <row r="95">
@@ -4037,37 +4037,37 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>95311.70219834121</v>
+        <v>9063.820374053919</v>
       </c>
       <c r="C95" t="n">
-        <v>319.369729917177</v>
+        <v>1400.312999049603</v>
       </c>
       <c r="D95" t="n">
-        <v>0.003350792426858318</v>
+        <v>0.1544947871052407</v>
       </c>
       <c r="E95" t="n">
-        <v>0.9966492075731417</v>
+        <v>0.8455052128947593</v>
       </c>
       <c r="F95" t="n">
-        <v>29.46146962449858</v>
+        <v>4.65141781885522</v>
       </c>
       <c r="G95" t="n">
-        <v>3730.326490565953</v>
+        <v>354.7414269939791</v>
       </c>
       <c r="H95" t="n">
-        <v>68934.77491687563</v>
+        <v>1632.377272594083</v>
       </c>
       <c r="I95" t="n">
-        <v>919683.4985447801</v>
+        <v>6638.219065425302</v>
       </c>
       <c r="J95" t="n">
-        <v>12.07149455729566</v>
+        <v>52.92884441778926</v>
       </c>
       <c r="K95" t="n">
-        <v>1369.610365797814</v>
+        <v>298.8396074295475</v>
       </c>
       <c r="L95" t="n">
-        <v>37439.61638018856</v>
+        <v>1405.047150657956</v>
       </c>
     </row>
     <row r="96">
@@ -4075,37 +4075,37 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>94992.33246842404</v>
+        <v>7663.507375004317</v>
       </c>
       <c r="C96" t="n">
-        <v>340.5273240962493</v>
+        <v>1259.599884549784</v>
       </c>
       <c r="D96" t="n">
-        <v>0.003584787479657292</v>
+        <v>0.1643633682219917</v>
       </c>
       <c r="E96" t="n">
-        <v>0.9964152125203427</v>
+        <v>0.8356366317780083</v>
       </c>
       <c r="F96" t="n">
-        <v>28.55883976471548</v>
+        <v>4.409984888965967</v>
       </c>
       <c r="G96" t="n">
-        <v>3590.507543325339</v>
+        <v>289.6642320834557</v>
       </c>
       <c r="H96" t="n">
-        <v>65204.44842630968</v>
+        <v>1277.635845600103</v>
       </c>
       <c r="I96" t="n">
-        <v>850748.7236279044</v>
+        <v>5005.841792831218</v>
       </c>
       <c r="J96" t="n">
-        <v>12.43042366380907</v>
+        <v>45.9797470097092</v>
       </c>
       <c r="K96" t="n">
-        <v>1357.538871240518</v>
+        <v>245.9107630117583</v>
       </c>
       <c r="L96" t="n">
-        <v>36070.00601439075</v>
+        <v>1106.207543228408</v>
       </c>
     </row>
     <row r="97">
@@ -4113,37 +4113,37 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>94651.80514432778</v>
+        <v>6403.907490454533</v>
       </c>
       <c r="C97" t="n">
-        <v>362.9992652774247</v>
+        <v>1119.372444536985</v>
       </c>
       <c r="D97" t="n">
-        <v>0.003835101345652236</v>
+        <v>0.1747952240418037</v>
       </c>
       <c r="E97" t="n">
-        <v>0.9961648986543478</v>
+        <v>0.8252047759581963</v>
       </c>
       <c r="F97" t="n">
-        <v>27.65978661520348</v>
+        <v>4.179049170746116</v>
       </c>
       <c r="G97" t="n">
-        <v>3455.117857607644</v>
+        <v>233.7647453738263</v>
       </c>
       <c r="H97" t="n">
-        <v>61613.94088298435</v>
+        <v>987.9716135166479</v>
       </c>
       <c r="I97" t="n">
-        <v>785544.2752015947</v>
+        <v>3728.205947231115</v>
       </c>
       <c r="J97" t="n">
-        <v>12.79694739062653</v>
+        <v>39.46165089978673</v>
       </c>
       <c r="K97" t="n">
-        <v>1345.108447576709</v>
+        <v>199.9310160020491</v>
       </c>
       <c r="L97" t="n">
-        <v>34712.46714315024</v>
+        <v>860.2967802166502</v>
       </c>
     </row>
     <row r="98">
@@ -4151,37 +4151,37 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>94288.80587905036</v>
+        <v>5284.535045917548</v>
       </c>
       <c r="C98" t="n">
-        <v>386.8544813569024</v>
+        <v>981.9359999460876</v>
       </c>
       <c r="D98" t="n">
-        <v>0.004102867543503974</v>
+        <v>0.1858131304672983</v>
       </c>
       <c r="E98" t="n">
-        <v>0.995897132456496</v>
+        <v>0.8141868695327017</v>
       </c>
       <c r="F98" t="n">
-        <v>26.76434815349527</v>
+        <v>3.958346919374217</v>
       </c>
       <c r="G98" t="n">
-        <v>3323.998155855895</v>
+        <v>186.2976689907221</v>
       </c>
       <c r="H98" t="n">
-        <v>58158.8230253767</v>
+        <v>754.2068681428216</v>
       </c>
       <c r="I98" t="n">
-        <v>723930.3343186103</v>
+        <v>2740.234333714466</v>
       </c>
       <c r="J98" t="n">
-        <v>13.17088458108301</v>
+        <v>33.43108673819037</v>
       </c>
       <c r="K98" t="n">
-        <v>1332.311500186083</v>
+        <v>160.4693651022624</v>
       </c>
       <c r="L98" t="n">
-        <v>33367.35869557352</v>
+        <v>660.3657642146011</v>
       </c>
     </row>
     <row r="99">
@@ -4189,37 +4189,37 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>93901.95139769345</v>
+        <v>4302.59904597146</v>
       </c>
       <c r="C99" t="n">
-        <v>412.1636162200502</v>
+        <v>849.5026878814019</v>
       </c>
       <c r="D99" t="n">
-        <v>0.00438929766724927</v>
+        <v>0.1974394264501115</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9956107023327507</v>
+        <v>0.8025605735498885</v>
       </c>
       <c r="F99" t="n">
-        <v>25.8725512380091</v>
+        <v>3.747608317927206</v>
       </c>
       <c r="G99" t="n">
-        <v>3196.994796233139</v>
+        <v>146.486697619218</v>
       </c>
       <c r="H99" t="n">
-        <v>54834.8248695208</v>
+        <v>567.9091991520994</v>
       </c>
       <c r="I99" t="n">
-        <v>665771.5112932336</v>
+        <v>1986.027465571645</v>
       </c>
       <c r="J99" t="n">
-        <v>13.55200761141345</v>
+        <v>27.93178834576837</v>
       </c>
       <c r="K99" t="n">
-        <v>1319.140615605</v>
+        <v>127.038278364072</v>
       </c>
       <c r="L99" t="n">
-        <v>32035.04719538744</v>
+        <v>499.8963991123388</v>
       </c>
     </row>
     <row r="100">
@@ -4227,37 +4227,37 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>93489.78778147341</v>
+        <v>3453.096358090058</v>
       </c>
       <c r="C100" t="n">
-        <v>438.9987501080868</v>
+        <v>724.0996876412266</v>
       </c>
       <c r="D100" t="n">
-        <v>0.004695686668304555</v>
+        <v>0.2096957665096069</v>
       </c>
       <c r="E100" t="n">
-        <v>0.9953043133316954</v>
+        <v>0.7903042334903931</v>
       </c>
       <c r="F100" t="n">
-        <v>24.98440989892969</v>
+        <v>3.546558509051067</v>
       </c>
       <c r="G100" t="n">
-        <v>3073.959626090651</v>
+        <v>113.5383772030872</v>
       </c>
       <c r="H100" t="n">
-        <v>51637.83007328767</v>
+        <v>421.4225015328815</v>
       </c>
       <c r="I100" t="n">
-        <v>610936.6864237128</v>
+        <v>1418.118266419546</v>
       </c>
       <c r="J100" t="n">
-        <v>13.94003750520573</v>
+        <v>22.9931789116511</v>
       </c>
       <c r="K100" t="n">
-        <v>1305.588607993586</v>
+        <v>99.10649001830363</v>
       </c>
       <c r="L100" t="n">
-        <v>30715.90657978244</v>
+        <v>372.8581207482668</v>
       </c>
     </row>
     <row r="101">
@@ -4265,37 +4265,37 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>93050.78903136532</v>
+        <v>2728.996670448832</v>
       </c>
       <c r="C101" t="n">
-        <v>467.4330532779358</v>
+        <v>607.4824077827107</v>
       </c>
       <c r="D101" t="n">
-        <v>0.005023418480851083</v>
+        <v>0.2226028394834206</v>
       </c>
       <c r="E101" t="n">
-        <v>0.9949765815191489</v>
+        <v>0.7773971605165794</v>
       </c>
       <c r="F101" t="n">
-        <v>24.09992343142796</v>
+        <v>3.354918624940025</v>
       </c>
       <c r="G101" t="n">
-        <v>2954.749845339762</v>
+        <v>86.65700284629919</v>
       </c>
       <c r="H101" t="n">
-        <v>48563.87044719701</v>
+        <v>307.8841243297943</v>
       </c>
       <c r="I101" t="n">
-        <v>559298.8563504252</v>
+        <v>996.6957648866644</v>
       </c>
       <c r="J101" t="n">
-        <v>14.33463869137546</v>
+        <v>18.62949307043156</v>
       </c>
       <c r="K101" t="n">
-        <v>1291.648570488381</v>
+        <v>76.11331110665253</v>
       </c>
       <c r="L101" t="n">
-        <v>29410.31797178886</v>
+        <v>273.7516307299632</v>
       </c>
     </row>
     <row r="102">
@@ -4303,37 +4303,37 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>92583.35597808738</v>
+        <v>2121.514262666121</v>
       </c>
       <c r="C102" t="n">
-        <v>497.5403636982316</v>
+        <v>501.0593477077775</v>
       </c>
       <c r="D102" t="n">
-        <v>0.005373972010865424</v>
+        <v>0.2361800514497098</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9946260279891346</v>
+        <v>0.7638199485502902</v>
       </c>
       <c r="F102" t="n">
-        <v>23.21907426745176</v>
+        <v>3.172406808178892</v>
       </c>
       <c r="G102" t="n">
-        <v>2839.227879744645</v>
+        <v>65.05988444902761</v>
       </c>
       <c r="H102" t="n">
-        <v>45609.12060185726</v>
+        <v>221.2271214834951</v>
       </c>
       <c r="I102" t="n">
-        <v>510734.9859032281</v>
+        <v>688.8116405568701</v>
       </c>
       <c r="J102" t="n">
-        <v>14.73541339908495</v>
+        <v>14.83963345419766</v>
       </c>
       <c r="K102" t="n">
-        <v>1277.313931797005</v>
+        <v>57.48381803622097</v>
       </c>
       <c r="L102" t="n">
-        <v>28118.66940130047</v>
+        <v>197.6383196233105</v>
       </c>
     </row>
     <row r="103">
@@ -4341,37 +4341,37 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>92085.81561438914</v>
+        <v>1620.454914958343</v>
       </c>
       <c r="C103" t="n">
-        <v>529.3946786605628</v>
+        <v>405.835108403661</v>
       </c>
       <c r="D103" t="n">
-        <v>0.005748927509937163</v>
+        <v>0.2504451710796864</v>
       </c>
       <c r="E103" t="n">
-        <v>0.9942510724900628</v>
+        <v>0.7495548289203136</v>
       </c>
       <c r="F103" t="n">
-        <v>22.34182559889729</v>
+        <v>2.99873921629181</v>
       </c>
       <c r="G103" t="n">
-        <v>2727.261264159338</v>
+        <v>47.99223301000916</v>
       </c>
       <c r="H103" t="n">
-        <v>42769.89272211261</v>
+        <v>156.1672370344675</v>
       </c>
       <c r="I103" t="n">
-        <v>465125.8653013708</v>
+        <v>467.5845190733748</v>
       </c>
       <c r="J103" t="n">
-        <v>15.14189568724202</v>
+        <v>11.60781006189319</v>
       </c>
       <c r="K103" t="n">
-        <v>1262.57851839792</v>
+        <v>42.64418458202331</v>
       </c>
       <c r="L103" t="n">
-        <v>26841.35546950347</v>
+        <v>140.1545015870896</v>
       </c>
     </row>
     <row r="104">
@@ -4379,37 +4379,37 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>91556.42093572857</v>
+        <v>1214.619806554682</v>
       </c>
       <c r="C104" t="n">
-        <v>563.0695493150002</v>
+        <v>322.3770237636083</v>
       </c>
       <c r="D104" t="n">
-        <v>0.006149973355885852</v>
+        <v>0.2654139361336809</v>
       </c>
       <c r="E104" t="n">
-        <v>0.9938500266441141</v>
+        <v>0.7345860638663191</v>
       </c>
       <c r="F104" t="n">
-        <v>21.46811872095375</v>
+        <v>2.833631003206378</v>
       </c>
       <c r="G104" t="n">
-        <v>2618.722535733902</v>
+        <v>34.74089776845194</v>
       </c>
       <c r="H104" t="n">
-        <v>40042.63145795327</v>
+        <v>108.1750040244583</v>
       </c>
       <c r="I104" t="n">
-        <v>422355.9725792582</v>
+        <v>311.4172820389074</v>
       </c>
       <c r="J104" t="n">
-        <v>15.55354511156522</v>
+        <v>8.904948932399744</v>
       </c>
       <c r="K104" t="n">
-        <v>1247.436622710678</v>
+        <v>31.03637452013012</v>
       </c>
       <c r="L104" t="n">
-        <v>25578.77695110555</v>
+        <v>97.51031700506627</v>
       </c>
     </row>
     <row r="105">
@@ -4417,37 +4417,37 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>90993.35138641357</v>
+        <v>892.242782791074</v>
       </c>
       <c r="C105" t="n">
-        <v>598.6373662836008</v>
+        <v>250.8091075737486</v>
       </c>
       <c r="D105" t="n">
-        <v>0.006578913263029729</v>
+        <v>0.2810996204297431</v>
       </c>
       <c r="E105" t="n">
-        <v>0.9934210867369703</v>
+        <v>0.7189003795702569</v>
       </c>
       <c r="F105" t="n">
-        <v>20.59787005968677</v>
+        <v>2.676797271273927</v>
       </c>
       <c r="G105" t="n">
-        <v>2513.489137110733</v>
+        <v>24.64622423551783</v>
       </c>
       <c r="H105" t="n">
-        <v>37423.90892221937</v>
+        <v>73.43410625600637</v>
       </c>
       <c r="I105" t="n">
-        <v>382313.341121305</v>
+        <v>203.2422780144491</v>
       </c>
       <c r="J105" t="n">
-        <v>15.96974003884163</v>
+        <v>6.690788903125564</v>
       </c>
       <c r="K105" t="n">
-        <v>1231.883077599113</v>
+        <v>22.13142558773038</v>
       </c>
       <c r="L105" t="n">
-        <v>24331.34032839487</v>
+        <v>66.47394248493616</v>
       </c>
     </row>
     <row r="106">
@@ -4455,37 +4455,37 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>90394.71402012998</v>
+        <v>641.4336752173253</v>
       </c>
       <c r="C106" t="n">
-        <v>636.1685236940197</v>
+        <v>190.8345756932468</v>
       </c>
       <c r="D106" t="n">
-        <v>0.00703767394576138</v>
+        <v>0.2975125614173434</v>
       </c>
       <c r="E106" t="n">
-        <v>0.9929623260542386</v>
+        <v>0.7024874385826566</v>
       </c>
       <c r="F106" t="n">
-        <v>19.73096784234873</v>
+        <v>2.527953987971421</v>
       </c>
       <c r="G106" t="n">
-        <v>2411.443329621728</v>
+        <v>17.11140938122905</v>
       </c>
       <c r="H106" t="n">
-        <v>34910.41978510864</v>
+        <v>48.78788202048855</v>
       </c>
       <c r="I106" t="n">
-        <v>344889.4321990855</v>
+        <v>129.8081717584427</v>
       </c>
       <c r="J106" t="n">
-        <v>16.38977062615543</v>
+        <v>4.91651945460975</v>
       </c>
       <c r="K106" t="n">
-        <v>1215.913337560271</v>
+        <v>15.44063668460481</v>
       </c>
       <c r="L106" t="n">
-        <v>23099.45725079576</v>
+        <v>44.34251689720577</v>
       </c>
     </row>
     <row r="107">
@@ -4493,37 +4493,37 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>89758.54549643595</v>
+        <v>450.5990995240786</v>
       </c>
       <c r="C107" t="n">
-        <v>675.7304482445159</v>
+        <v>141.7853547246312</v>
       </c>
       <c r="D107" t="n">
-        <v>0.00752831325983716</v>
+        <v>0.3146596495074768</v>
       </c>
       <c r="E107" t="n">
-        <v>0.9924716867401628</v>
+        <v>0.6853403504925232</v>
       </c>
       <c r="F107" t="n">
-        <v>18.86726836230268</v>
+        <v>2.386818861933011</v>
       </c>
       <c r="G107" t="n">
-        <v>2312.472116478829</v>
+        <v>11.60889860232055</v>
       </c>
       <c r="H107" t="n">
-        <v>32498.97645548691</v>
+        <v>31.67647263925951</v>
       </c>
       <c r="I107" t="n">
-        <v>309979.0124139768</v>
+        <v>81.02028973795414</v>
       </c>
       <c r="J107" t="n">
-        <v>16.81283149275807</v>
+        <v>3.5277576781083</v>
       </c>
       <c r="K107" t="n">
-        <v>1199.523566934116</v>
+        <v>10.52411722999507</v>
       </c>
       <c r="L107" t="n">
-        <v>21883.54391323548</v>
+        <v>28.90188021260095</v>
       </c>
     </row>
     <row r="108">
@@ -4531,37 +4531,37 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>89082.81504819143</v>
+        <v>308.8137447994473</v>
       </c>
       <c r="C108" t="n">
-        <v>717.3864793065488</v>
+        <v>102.694090496799</v>
       </c>
       <c r="D108" t="n">
-        <v>0.008053028846455534</v>
+        <v>0.3325437815712885</v>
       </c>
       <c r="E108" t="n">
-        <v>0.9919469711535445</v>
+        <v>0.6674562184287115</v>
       </c>
       <c r="F108" t="n">
-        <v>18.00659178261412</v>
+        <v>2.25311217350188</v>
       </c>
       <c r="G108" t="n">
-        <v>2216.467175923105</v>
+        <v>7.683586654188984</v>
       </c>
       <c r="H108" t="n">
-        <v>30186.50433900808</v>
+        <v>20.06757403693896</v>
       </c>
       <c r="I108" t="n">
-        <v>277480.0359584899</v>
+        <v>49.34381709869465</v>
       </c>
       <c r="J108" t="n">
-        <v>17.23801412409035</v>
+        <v>2.467626911724923</v>
       </c>
       <c r="K108" t="n">
-        <v>1182.710735441358</v>
+        <v>6.996359551886764</v>
       </c>
       <c r="L108" t="n">
-        <v>20684.02034630137</v>
+        <v>18.37776298260589</v>
       </c>
     </row>
     <row r="109">
@@ -4569,37 +4569,37 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>88365.42856888489</v>
+        <v>206.1196543026483</v>
       </c>
       <c r="C109" t="n">
-        <v>761.1945856511508</v>
+        <v>72.38165440235987</v>
       </c>
       <c r="D109" t="n">
-        <v>0.00861416730478215</v>
+        <v>0.3511632825469467</v>
       </c>
       <c r="E109" t="n">
-        <v>0.9913858326952179</v>
+        <v>0.6488367174530533</v>
       </c>
       <c r="F109" t="n">
-        <v>17.14871741304432</v>
+        <v>2.126557555533694</v>
       </c>
       <c r="G109" t="n">
-        <v>2123.324804259144</v>
+        <v>4.952830328717956</v>
       </c>
       <c r="H109" t="n">
-        <v>27970.03716308497</v>
+        <v>12.38398738274997</v>
       </c>
       <c r="I109" t="n">
-        <v>247293.531619482</v>
+        <v>29.27624306175568</v>
       </c>
       <c r="J109" t="n">
-        <v>17.66429906155919</v>
+        <v>1.679690336788162</v>
       </c>
       <c r="K109" t="n">
-        <v>1165.472721317267</v>
+        <v>4.528732640161842</v>
       </c>
       <c r="L109" t="n">
-        <v>19501.30961086001</v>
+        <v>11.38140343071913</v>
       </c>
     </row>
     <row r="110">
@@ -4607,37 +4607,37 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>87604.23398323375</v>
+        <v>133.7379999002884</v>
       </c>
       <c r="C110" t="n">
-        <v>807.2059042188442</v>
+        <v>49.55144032404993</v>
       </c>
       <c r="D110" t="n">
-        <v>0.009214233919028758</v>
+        <v>0.370511300909197</v>
       </c>
       <c r="E110" t="n">
-        <v>0.9907857660809712</v>
+        <v>0.629488699090803</v>
       </c>
       <c r="F110" t="n">
-        <v>16.29337838405709</v>
+        <v>2.006882720692182</v>
       </c>
       <c r="G110" t="n">
-        <v>2032.945868650515</v>
+        <v>3.103527101565763</v>
       </c>
       <c r="H110" t="n">
-        <v>25846.71235882583</v>
+        <v>7.431157054032019</v>
       </c>
       <c r="I110" t="n">
-        <v>219323.494456397</v>
+        <v>16.89225567900571</v>
       </c>
       <c r="J110" t="n">
-        <v>18.0905479482249</v>
+        <v>1.110513070334036</v>
       </c>
       <c r="K110" t="n">
-        <v>1147.808422255708</v>
+        <v>2.849042303373678</v>
       </c>
       <c r="L110" t="n">
-        <v>18335.83688954275</v>
+        <v>6.852670790557288</v>
       </c>
     </row>
     <row r="111">
@@ -4645,37 +4645,37 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>86797.0280790149</v>
+        <v>84.18655957623849</v>
       </c>
       <c r="C111" t="n">
-        <v>855.4630865273147</v>
+        <v>32.88118115431447</v>
       </c>
       <c r="D111" t="n">
-        <v>0.00985590296649963</v>
+        <v>0.3905751858708231</v>
       </c>
       <c r="E111" t="n">
-        <v>0.9901440970335004</v>
+        <v>0.6094248141291769</v>
       </c>
       <c r="F111" t="n">
-        <v>15.44025562814393</v>
+        <v>1.893820131908064</v>
       </c>
       <c r="G111" t="n">
-        <v>1945.23576948607</v>
+        <v>1.886731730590928</v>
       </c>
       <c r="H111" t="n">
-        <v>23813.76649017531</v>
+        <v>4.327629952466255</v>
       </c>
       <c r="I111" t="n">
-        <v>193476.7820975712</v>
+        <v>9.461098624973689</v>
       </c>
       <c r="J111" t="n">
-        <v>18.51549551988386</v>
+        <v>0.7116746145326052</v>
       </c>
       <c r="K111" t="n">
-        <v>1129.717874307483</v>
+        <v>1.738529233039643</v>
       </c>
       <c r="L111" t="n">
-        <v>17188.02846728704</v>
+        <v>4.003628487183611</v>
       </c>
     </row>
     <row r="112">
@@ -4683,37 +4683,37 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>85941.56499248758</v>
+        <v>51.30537842192403</v>
       </c>
       <c r="C112" t="n">
-        <v>905.9984389262942</v>
+        <v>21.10374178148575</v>
       </c>
       <c r="D112" t="n">
-        <v>0.01054202863312403</v>
+        <v>0.4113358566022702</v>
       </c>
       <c r="E112" t="n">
-        <v>0.989457971366876</v>
+        <v>0.5886641433977298</v>
       </c>
       <c r="F112" t="n">
-        <v>14.58897106280324</v>
+        <v>1.787107612937832</v>
       </c>
       <c r="G112" t="n">
-        <v>1860.104412043971</v>
+        <v>1.110444762933379</v>
       </c>
       <c r="H112" t="n">
-        <v>21868.53072068924</v>
+        <v>2.440898221875327</v>
       </c>
       <c r="I112" t="n">
-        <v>169663.0156073958</v>
+        <v>5.133468672507436</v>
       </c>
       <c r="J112" t="n">
-        <v>18.93774165334044</v>
+        <v>0.4411235081709639</v>
       </c>
       <c r="K112" t="n">
-        <v>1111.202378787599</v>
+        <v>1.026854618507038</v>
       </c>
       <c r="L112" t="n">
-        <v>16058.31059297955</v>
+        <v>2.265099254143967</v>
       </c>
     </row>
     <row r="113">
@@ -4721,37 +4721,37 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>85035.56655356128</v>
+        <v>30.20163664043827</v>
       </c>
       <c r="C113" t="n">
-        <v>958.8318440880228</v>
+        <v>13.07027701340797</v>
       </c>
       <c r="D113" t="n">
-        <v>0.01127565656288165</v>
+        <v>0.4327671764618085</v>
       </c>
       <c r="E113" t="n">
-        <v>0.9887243434371183</v>
+        <v>0.5672328235381915</v>
       </c>
       <c r="F113" t="n">
-        <v>13.73907985029438</v>
+        <v>1.686488895873179</v>
       </c>
       <c r="G113" t="n">
-        <v>1777.466187077823</v>
+        <v>0.6312933528699056</v>
       </c>
       <c r="H113" t="n">
-        <v>20008.42630864527</v>
+        <v>1.330453458941948</v>
       </c>
       <c r="I113" t="n">
-        <v>147794.4848867066</v>
+        <v>2.692570450632108</v>
       </c>
       <c r="J113" t="n">
-        <v>19.35574360924062</v>
+        <v>0.2638470262884295</v>
       </c>
       <c r="K113" t="n">
-        <v>1092.264637134259</v>
+        <v>0.5857311103360738</v>
       </c>
       <c r="L113" t="n">
-        <v>14947.10821419195</v>
+        <v>1.238244635636929</v>
       </c>
     </row>
     <row r="114">
@@ -4759,37 +4759,37 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>84076.73470947325</v>
+        <v>17.1313596270303</v>
       </c>
       <c r="C114" t="n">
-        <v>1013.96845300235</v>
+        <v>7.791947920935902</v>
       </c>
       <c r="D114" t="n">
-        <v>0.01206003606712502</v>
+        <v>0.4548353481904358</v>
       </c>
       <c r="E114" t="n">
-        <v>0.987939963932875</v>
+        <v>0.5451646518095642</v>
       </c>
       <c r="F114" t="n">
-        <v>12.89006158609502</v>
+        <v>1.591714101578772</v>
       </c>
       <c r="G114" t="n">
-        <v>1697.239959824811</v>
+        <v>0.3458272758284129</v>
       </c>
       <c r="H114" t="n">
-        <v>18230.96012156745</v>
+        <v>0.6991601060720426</v>
       </c>
       <c r="I114" t="n">
-        <v>127786.0585780613</v>
+        <v>1.362116991690161</v>
       </c>
       <c r="J114" t="n">
-        <v>19.76780863582664</v>
+        <v>0.1519078181824175</v>
       </c>
       <c r="K114" t="n">
-        <v>1072.908893525018</v>
+        <v>0.3218840840476442</v>
       </c>
       <c r="L114" t="n">
-        <v>13854.8435770577</v>
+        <v>0.6525135253008555</v>
       </c>
     </row>
     <row r="115">
@@ -4797,37 +4797,37 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>83062.7662564709</v>
+        <v>9.339411706094401</v>
       </c>
       <c r="C115" t="n">
-        <v>1071.396139491683</v>
+        <v>4.459553672007787</v>
       </c>
       <c r="D115" t="n">
-        <v>0.01289863301907812</v>
+        <v>0.4774983491837843</v>
       </c>
       <c r="E115" t="n">
-        <v>0.9871013669809219</v>
+        <v>0.5225016508162157</v>
       </c>
       <c r="F115" t="n">
-        <v>12.04131023991743</v>
+        <v>1.502540146275161</v>
       </c>
       <c r="G115" t="n">
-        <v>1619.349066786509</v>
+        <v>0.1820763780476762</v>
       </c>
       <c r="H115" t="n">
-        <v>16533.72016174264</v>
+        <v>0.3533328302436295</v>
       </c>
       <c r="I115" t="n">
-        <v>109555.0984564939</v>
+        <v>0.6629568856181177</v>
       </c>
       <c r="J115" t="n">
-        <v>20.17208713254572</v>
+        <v>0.08396381312955402</v>
       </c>
       <c r="K115" t="n">
-        <v>1053.141084889192</v>
+        <v>0.1699762658652267</v>
       </c>
       <c r="L115" t="n">
-        <v>12781.93468353268</v>
+        <v>0.3306294412532113</v>
       </c>
     </row>
     <row r="116">
@@ -4835,37 +4835,37 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>81991.37011697922</v>
+        <v>4.879858034086614</v>
       </c>
       <c r="C116" t="n">
-        <v>1131.082713054078</v>
+        <v>2.44337141147017</v>
       </c>
       <c r="D116" t="n">
-        <v>0.01379514345766308</v>
+        <v>0.5007054292159356</v>
       </c>
       <c r="E116" t="n">
-        <v>0.9862048565423369</v>
+        <v>0.4992945707840644</v>
       </c>
       <c r="F116" t="n">
-        <v>11.19212263905263</v>
+        <v>1.418731059909692</v>
       </c>
       <c r="G116" t="n">
-        <v>1543.721319456321</v>
+        <v>0.09187724113393873</v>
       </c>
       <c r="H116" t="n">
-        <v>14914.37109495613</v>
+        <v>0.1712564521959534</v>
       </c>
       <c r="I116" t="n">
-        <v>93021.37829475127</v>
+        <v>0.3096240553744883</v>
       </c>
       <c r="J116" t="n">
-        <v>20.56656660861153</v>
+        <v>0.04442801600944972</v>
       </c>
       <c r="K116" t="n">
-        <v>1032.968997756646</v>
+        <v>0.08601245273567272</v>
       </c>
       <c r="L116" t="n">
-        <v>11728.79359864349</v>
+        <v>0.1606531753879845</v>
       </c>
     </row>
     <row r="117">
@@ -4873,37 +4873,37 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>80860.28740392515</v>
+        <v>2.436486622616444</v>
       </c>
       <c r="C117" t="n">
-        <v>1192.972890886951</v>
+        <v>1.277685535301723</v>
       </c>
       <c r="D117" t="n">
-        <v>0.01475350792321128</v>
+        <v>0.5243966962271553</v>
       </c>
       <c r="E117" t="n">
-        <v>0.9852464920767887</v>
+        <v>0.4756033037728447</v>
       </c>
       <c r="F117" t="n">
-        <v>10.34168524229288</v>
+        <v>1.340058181419774</v>
       </c>
       <c r="G117" t="n">
-        <v>1470.289013960721</v>
+        <v>0.04430282934810995</v>
       </c>
       <c r="H117" t="n">
-        <v>13370.64977549981</v>
+        <v>0.07937921106201463</v>
       </c>
       <c r="I117" t="n">
-        <v>78107.00719979513</v>
+        <v>0.1383676031785349</v>
       </c>
       <c r="J117" t="n">
-        <v>20.9490667112974</v>
+        <v>0.0224366536067683</v>
       </c>
       <c r="K117" t="n">
-        <v>1012.402431148034</v>
+        <v>0.04158443672622301</v>
       </c>
       <c r="L117" t="n">
-        <v>10695.82460088684</v>
+        <v>0.07464072265231181</v>
       </c>
     </row>
     <row r="118">
@@ -4911,37 +4911,37 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>79667.31451303819</v>
+        <v>1.158801087314721</v>
       </c>
       <c r="C118" t="n">
-        <v>1256.985036462002</v>
+        <v>0.6356056628492537</v>
       </c>
       <c r="D118" t="n">
-        <v>0.01577792654547538</v>
+        <v>0.5485028188247016</v>
       </c>
       <c r="E118" t="n">
-        <v>0.9842220734545246</v>
+        <v>0.4514971811752984</v>
       </c>
       <c r="F118" t="n">
-        <v>9.489058901948203</v>
+        <v>1.266300138699201</v>
       </c>
       <c r="G118" t="n">
-        <v>1398.988945342013</v>
+        <v>0.02034899658552298</v>
       </c>
       <c r="H118" t="n">
-        <v>11900.36076153909</v>
+        <v>0.03507638171390468</v>
       </c>
       <c r="I118" t="n">
-        <v>64736.35742429532</v>
+        <v>0.05898839211652031</v>
       </c>
       <c r="J118" t="n">
-        <v>21.31723564168423</v>
+        <v>0.01077924978986497</v>
       </c>
       <c r="K118" t="n">
-        <v>991.453364436737</v>
+        <v>0.0191477831194547</v>
       </c>
       <c r="L118" t="n">
-        <v>9683.422169738806</v>
+        <v>0.03305628592608881</v>
       </c>
     </row>
     <row r="119">
@@ -4949,37 +4949,37 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>78410.32947657618</v>
+        <v>0.5231954244654673</v>
       </c>
       <c r="C119" t="n">
-        <v>1323.007680248745</v>
+        <v>0.2997621379916046</v>
       </c>
       <c r="D119" t="n">
-        <v>0.01687287490156475</v>
+        <v>0.5729448767596972</v>
       </c>
       <c r="E119" t="n">
-        <v>0.9831271250984353</v>
+        <v>0.4270551232403028</v>
       </c>
       <c r="F119" t="n">
-        <v>8.633161249267124</v>
+        <v>1.19724235421456</v>
       </c>
       <c r="G119" t="n">
-        <v>1329.762424936236</v>
+        <v>0.00887288219545844</v>
       </c>
       <c r="H119" t="n">
-        <v>10501.37181619708</v>
+        <v>0.01472738512838169</v>
       </c>
       <c r="I119" t="n">
-        <v>52835.99666275623</v>
+        <v>0.02391201040261563</v>
       </c>
       <c r="J119" t="n">
-        <v>21.66854832127797</v>
+        <v>0.00490957873407012</v>
       </c>
       <c r="K119" t="n">
-        <v>970.1361287950529</v>
+        <v>0.008368533329589728</v>
       </c>
       <c r="L119" t="n">
-        <v>8691.968805302069</v>
+        <v>0.01390850280663411</v>
       </c>
     </row>
     <row r="120">
@@ -4987,37 +4987,37 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>77087.32179632744</v>
+        <v>0.2234332864738627</v>
       </c>
       <c r="C120" t="n">
-        <v>1390.895848364528</v>
+        <v>0.1335314164392539</v>
       </c>
       <c r="D120" t="n">
-        <v>0.01804312065788738</v>
+        <v>0.5976343925589369</v>
       </c>
       <c r="E120" t="n">
-        <v>0.9819568793421126</v>
+        <v>0.4023656074410631</v>
       </c>
       <c r="F120" t="n">
-        <v>7.772746262038893</v>
+        <v>1.132675306466755</v>
       </c>
       <c r="G120" t="n">
-        <v>1262.555298989324</v>
+        <v>0.003659445849649617</v>
       </c>
       <c r="H120" t="n">
-        <v>9171.609391260838</v>
+        <v>0.005854502932923248</v>
       </c>
       <c r="I120" t="n">
-        <v>42334.62484655915</v>
+        <v>0.009184625274233941</v>
       </c>
       <c r="J120" t="n">
-        <v>22.00030672060673</v>
+        <v>0.002112115096148255</v>
       </c>
       <c r="K120" t="n">
-        <v>948.4675804737749</v>
+        <v>0.003458954595519609</v>
       </c>
       <c r="L120" t="n">
-        <v>7721.832676507016</v>
+        <v>0.005539969477044377</v>
       </c>
     </row>
     <row r="121">
@@ -5025,37 +5025,37 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>75696.42594796291</v>
+        <v>0.08990187003460882</v>
       </c>
       <c r="C121" t="n">
-        <v>1460.467237302114</v>
+        <v>0.05596153874382179</v>
       </c>
       <c r="D121" t="n">
-        <v>0.01929374100576564</v>
+        <v>0.6224735783836166</v>
       </c>
       <c r="E121" t="n">
-        <v>0.9807062589942344</v>
+        <v>0.3775264216163834</v>
       </c>
       <c r="F121" t="n">
-        <v>6.906380478653459</v>
+        <v>1.072389127615554</v>
       </c>
       <c r="G121" t="n">
-        <v>1197.317966307153</v>
+        <v>0.001422010654387369</v>
       </c>
       <c r="H121" t="n">
-        <v>7909.054092271514</v>
+        <v>0.002195057083273631</v>
       </c>
       <c r="I121" t="n">
-        <v>33163.01545529831</v>
+        <v>0.003330122341310692</v>
       </c>
       <c r="J121" t="n">
-        <v>22.30964280945689</v>
+        <v>0.0008548510425667181</v>
       </c>
       <c r="K121" t="n">
-        <v>926.4672737531681</v>
+        <v>0.001346839499371354</v>
       </c>
       <c r="L121" t="n">
-        <v>6773.365096033241</v>
+        <v>0.002081014881524768</v>
       </c>
     </row>
     <row r="122">
@@ -5063,37 +5063,37 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>74235.95871066079</v>
+        <v>0.03394033129078704</v>
       </c>
       <c r="C122" t="n">
-        <v>1531.498287673972</v>
+        <v>0.02197147139053067</v>
       </c>
       <c r="D122" t="n">
-        <v>0.02063014089496817</v>
+        <v>0.6473558316885001</v>
       </c>
       <c r="E122" t="n">
-        <v>0.9793698591050318</v>
+        <v>0.3526441683114999</v>
       </c>
       <c r="F122" t="n">
-        <v>6.032415205775823</v>
+        <v>1.016156472346661</v>
       </c>
       <c r="G122" t="n">
-        <v>1134.005392350909</v>
+        <v>0.0005184619336828416</v>
       </c>
       <c r="H122" t="n">
-        <v>6711.736125964361</v>
+        <v>0.000773046428886262</v>
       </c>
       <c r="I122" t="n">
-        <v>25253.96136302681</v>
+        <v>0.001135065258037061</v>
       </c>
       <c r="J122" t="n">
-        <v>22.59352463625144</v>
+        <v>0.0003241355110560368</v>
       </c>
       <c r="K122" t="n">
-        <v>904.1576309437113</v>
+        <v>0.0004919884568046358</v>
       </c>
       <c r="L122" t="n">
-        <v>5846.897822280072</v>
+        <v>0.0007341753821534142</v>
       </c>
     </row>
     <row r="123">
@@ -5101,37 +5101,37 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>72704.46042298683</v>
+        <v>0.01196885990025637</v>
       </c>
       <c r="C123" t="n">
-        <v>1603.720227297692</v>
+        <v>0.008045066799387993</v>
       </c>
       <c r="D123" t="n">
-        <v>0.0220580720628063</v>
+        <v>0.672166510965315</v>
       </c>
       <c r="E123" t="n">
-        <v>0.9779419279371937</v>
+        <v>0.327833489034685</v>
       </c>
       <c r="F123" t="n">
-        <v>5.148953921076821</v>
+        <v>0.9636750547104648</v>
       </c>
       <c r="G123" t="n">
-        <v>1072.577116770378</v>
+        <v>0.0001765713570826084</v>
       </c>
       <c r="H123" t="n">
-        <v>5577.730733613453</v>
+        <v>0.0002545844952034202</v>
       </c>
       <c r="I123" t="n">
-        <v>18542.22523706244</v>
+        <v>0.0003620188291507986</v>
       </c>
       <c r="J123" t="n">
-        <v>22.84876608911789</v>
+        <v>0.0001146208960526024</v>
       </c>
       <c r="K123" t="n">
-        <v>881.5641063074598</v>
+        <v>0.0001678529457485991</v>
       </c>
       <c r="L123" t="n">
-        <v>4942.740191336361</v>
+        <v>0.0002421869253487785</v>
       </c>
     </row>
     <row r="124">
@@ -5139,37 +5139,37 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>71100.74019568914</v>
+        <v>0.003923793100868378</v>
       </c>
       <c r="C124" t="n">
-        <v>1676.815174047466</v>
+        <v>0.00273403632405266</v>
       </c>
       <c r="D124" t="n">
-        <v>0.02358365284851327</v>
+        <v>0.696784018364166</v>
       </c>
       <c r="E124" t="n">
-        <v>0.9764163471514867</v>
+        <v>0.303215981635834</v>
       </c>
       <c r="F124" t="n">
-        <v>4.253813890445435</v>
+        <v>0.9143614676943748</v>
       </c>
       <c r="G124" t="n">
-        <v>1012.997250918182</v>
+        <v>5.590366026305289e-05</v>
       </c>
       <c r="H124" t="n">
-        <v>4505.153616843074</v>
+        <v>7.801313812081185e-05</v>
       </c>
       <c r="I124" t="n">
-        <v>12964.49450344899</v>
+        <v>0.0001074343339473784</v>
       </c>
       <c r="J124" t="n">
-        <v>23.07204093074835</v>
+        <v>3.761881389851384e-05</v>
       </c>
       <c r="K124" t="n">
-        <v>858.7153402183419</v>
+        <v>5.323204969599671e-05</v>
       </c>
       <c r="L124" t="n">
-        <v>4061.176085028902</v>
+        <v>7.433397960017944e-05</v>
       </c>
     </row>
     <row r="125">
@@ -5177,37 +5177,37 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>69423.92502164167</v>
+        <v>0.001189756776815718</v>
       </c>
       <c r="C125" t="n">
-        <v>1750.412411729187</v>
+        <v>0.000857911254935346</v>
       </c>
       <c r="D125" t="n">
-        <v>0.02521338877315749</v>
+        <v>0.7210812089101706</v>
       </c>
       <c r="E125" t="n">
-        <v>0.9747866112268425</v>
+        <v>0.2789187910898294</v>
       </c>
       <c r="F125" t="n">
-        <v>3.344480790798403</v>
+        <v>0.8665555009960784</v>
       </c>
       <c r="G125" t="n">
-        <v>955.2344614142785</v>
+        <v>1.637038922188954e-05</v>
       </c>
       <c r="H125" t="n">
-        <v>3492.156365924892</v>
+        <v>2.210947785775897e-05</v>
       </c>
       <c r="I125" t="n">
-        <v>8459.340886605916</v>
+        <v>2.942119582656652e-05</v>
       </c>
       <c r="J125" t="n">
-        <v>23.2599017298166</v>
+        <v>1.140013139131414e-05</v>
       </c>
       <c r="K125" t="n">
-        <v>835.6432992875935</v>
+        <v>1.561323579748287e-05</v>
       </c>
       <c r="L125" t="n">
-        <v>3202.46074481056</v>
+        <v>2.110192990418273e-05</v>
       </c>
     </row>
     <row r="126">
@@ -5215,37 +5215,37 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>67673.51260991248</v>
+        <v>0.0003318455218803721</v>
       </c>
       <c r="C126" t="n">
-        <v>1824.084977676673</v>
+        <v>0.0002472007342250149</v>
       </c>
       <c r="D126" t="n">
-        <v>0.0269541938541179</v>
+        <v>0.7449271360489503</v>
       </c>
       <c r="E126" t="n">
-        <v>0.9730458061458821</v>
+        <v>0.2550728639510497</v>
       </c>
       <c r="F126" t="n">
-        <v>2.418054841990914</v>
+        <v>0.8142015264149931</v>
       </c>
       <c r="G126" t="n">
-        <v>899.2619353418986</v>
+        <v>4.409643222760323e-06</v>
       </c>
       <c r="H126" t="n">
-        <v>2536.921904510614</v>
+        <v>5.739088635869433e-06</v>
       </c>
       <c r="I126" t="n">
-        <v>4967.184520681023</v>
+        <v>7.311717968807554e-06</v>
       </c>
       <c r="J126" t="n">
-        <v>23.40880432931719</v>
+        <v>3.172370634238416e-06</v>
       </c>
       <c r="K126" t="n">
-        <v>812.383397557777</v>
+        <v>4.213104406168729e-06</v>
       </c>
       <c r="L126" t="n">
-        <v>2366.817445522966</v>
+        <v>5.488694106699869e-06</v>
       </c>
     </row>
     <row r="127">
@@ -5253,37 +5253,37 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>65849.42763223581</v>
+        <v>8.464478765535722e-05</v>
       </c>
       <c r="C127" t="n">
-        <v>1897.346728495803</v>
+        <v>6.502320580192157e-05</v>
       </c>
       <c r="D127" t="n">
-        <v>0.02881341260993708</v>
+        <v>0.7681891301644279</v>
       </c>
       <c r="E127" t="n">
-        <v>0.9711865873900629</v>
+        <v>0.2318108698355721</v>
       </c>
       <c r="F127" t="n">
-        <v>1.471186587390063</v>
+        <v>0.7318108698355721</v>
       </c>
       <c r="G127" t="n">
-        <v>845.0573221670212</v>
+        <v>1.086261493280099e-06</v>
       </c>
       <c r="H127" t="n">
-        <v>1637.659969168715</v>
+        <v>1.32944541310911e-06</v>
       </c>
       <c r="I127" t="n">
-        <v>2430.26261617041</v>
+        <v>1.57262933293812e-06</v>
       </c>
       <c r="J127" t="n">
-        <v>23.51513849173016</v>
+        <v>8.058778433294884e-07</v>
       </c>
       <c r="K127" t="n">
-        <v>788.9745932284598</v>
+        <v>1.040733771930314e-06</v>
       </c>
       <c r="L127" t="n">
-        <v>1554.434047965189</v>
+        <v>1.275589700531139e-06</v>
       </c>
     </row>
     <row r="128">
@@ -5291,10 +5291,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>63952.08090374</v>
+        <v>1.962158185343565e-05</v>
       </c>
       <c r="C128" t="n">
-        <v>63952.08090374</v>
+        <v>1.962158185343565e-05</v>
       </c>
       <c r="D128" t="n">
         <v>1</v>
@@ -5306,22 +5306,22 @@
         <v>0.5</v>
       </c>
       <c r="G128" t="n">
-        <v>792.6026470016942</v>
+        <v>2.431839198290105e-07</v>
       </c>
       <c r="H128" t="n">
-        <v>792.6026470016942</v>
+        <v>2.431839198290105e-07</v>
       </c>
       <c r="I128" t="n">
-        <v>792.6026470016942</v>
+        <v>2.431839198290105e-07</v>
       </c>
       <c r="J128" t="n">
-        <v>765.4594547367296</v>
+        <v>2.348559286008253e-07</v>
       </c>
       <c r="K128" t="n">
-        <v>765.4594547367296</v>
+        <v>2.348559286008253e-07</v>
       </c>
       <c r="L128" t="n">
-        <v>765.4594547367296</v>
+        <v>2.348559286008253e-07</v>
       </c>
     </row>
   </sheetData>
